--- a/mutation_rate_literature_updating3.xlsx
+++ b/mutation_rate_literature_updating3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywang120\Dropbox\iMutations3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywang120\Desktop\mutation_literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAED21C-AF6D-4DA9-98A3-A914EA10FCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A070218D-61DB-4DF3-84DF-C617C67EDA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27420" yWindow="-792" windowWidth="21600" windowHeight="11388" activeTab="2" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
+    <workbookView xWindow="27900" yWindow="-2556" windowWidth="22704" windowHeight="14592" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8766" uniqueCount="2258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8783" uniqueCount="2269">
   <si>
     <t>PID</t>
   </si>
@@ -6816,6 +6816,39 @@
   </si>
   <si>
     <t>fungi</t>
+  </si>
+  <si>
+    <t>Echinodermata</t>
+  </si>
+  <si>
+    <t>crown-of-thorns sea stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acanthaster cf. solaris</t>
+  </si>
+  <si>
+    <t>2023005_01</t>
+  </si>
+  <si>
+    <t>9.13e-9</t>
+  </si>
+  <si>
+    <t>6.51e-9</t>
+  </si>
+  <si>
+    <t>11.8e-9</t>
+  </si>
+  <si>
+    <t>NovaSeq</t>
+  </si>
+  <si>
+    <t>60X</t>
+  </si>
+  <si>
+    <t>Popovic, I., Bergeron, L., Bozec, Y. M., Waldvogel, A. M., Howitt, S. M., Damjanovic, K., ... &amp; Riginos, C. (2023). High germline mutation rates but not extreme population size outbreaks influence genetic diversity in crown-of-thorns sea stars. bioRxiv, 2023-06.</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2023.06.28.546961v1</t>
   </si>
 </sst>
 </file>
@@ -7207,12 +7240,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318201D5-CE15-42FE-AD6F-C948F9B6134A}">
-  <dimension ref="A1:AC500"/>
+  <dimension ref="A1:AC501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C498" sqref="C498"/>
+      <selection pane="bottomLeft" activeCell="M504" sqref="M504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7223,12 +7256,13 @@
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="16" max="16" width="4.85546875" customWidth="1"/>
     <col min="17" max="17" width="3.7109375" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="22" max="22" width="5.28515625" customWidth="1"/>
     <col min="25" max="25" width="4.85546875" customWidth="1"/>
   </cols>
@@ -40261,6 +40295,9 @@
       <c r="K500" t="s">
         <v>31</v>
       </c>
+      <c r="L500" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="R500" s="6">
         <v>352</v>
       </c>
@@ -40284,6 +40321,68 @@
       </c>
       <c r="AC500" s="2" t="s">
         <v>2018</v>
+      </c>
+    </row>
+    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>2023005</v>
+      </c>
+      <c r="B501">
+        <v>2023</v>
+      </c>
+      <c r="C501" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D501" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E501" s="5" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F501" t="s">
+        <v>2260</v>
+      </c>
+      <c r="H501" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I501" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J501" t="s">
+        <v>30</v>
+      </c>
+      <c r="K501" t="s">
+        <v>31</v>
+      </c>
+      <c r="L501" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="M501" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N501" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="R501" s="6">
+        <v>63</v>
+      </c>
+      <c r="T501" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U501">
+        <v>14</v>
+      </c>
+      <c r="W501" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="Y501" t="s">
+        <v>2266</v>
+      </c>
+      <c r="AA501" t="s">
+        <v>2267</v>
+      </c>
+      <c r="AC501" s="2" t="s">
+        <v>2268</v>
       </c>
     </row>
   </sheetData>
@@ -40711,6 +40810,7 @@
     <hyperlink ref="AC498" r:id="rId420" xr:uid="{57E38A4F-57BC-425C-A23D-1137830356C3}"/>
     <hyperlink ref="AC499" r:id="rId421" xr:uid="{68B472BE-11B8-4E2C-9783-AAC12870590E}"/>
     <hyperlink ref="AC500" r:id="rId422" xr:uid="{B9A7A64F-F3A3-4D8D-A7A7-F9435A0FDD30}"/>
+    <hyperlink ref="AC501" r:id="rId423" xr:uid="{F1186383-B365-495B-9DB1-CF21BCAEFE16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42937,7 +43037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D1E49B-2108-40C6-B7F7-E2783659ADC8}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>

--- a/mutation_rate_literature_updating3.xlsx
+++ b/mutation_rate_literature_updating3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywang120\Desktop\mutation_literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A070218D-61DB-4DF3-84DF-C617C67EDA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD49BBB1-319F-4C23-AB3A-04E3FB3D12D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="-2556" windowWidth="22704" windowHeight="14592" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
+    <workbookView xWindow="23352" yWindow="-3960" windowWidth="23040" windowHeight="12264" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8783" uniqueCount="2269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8799" uniqueCount="2276">
   <si>
     <t>PID</t>
   </si>
@@ -6849,6 +6849,27 @@
   </si>
   <si>
     <t>https://www.biorxiv.org/content/10.1101/2023.06.28.546961v1</t>
+  </si>
+  <si>
+    <t>2023006_01</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>1.92e-9</t>
+  </si>
+  <si>
+    <t>3.88e-9</t>
+  </si>
+  <si>
+    <t>47X</t>
+  </si>
+  <si>
+    <t>Burda, K., &amp; Konczal, M. (2023). Validation of machine learning approach for direct mutation rate estimation. Molecular Ecology Resources, 00, 1– 15. https://doi.org/10.1111/1755-0998.13841</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/1755-0998.13841</t>
   </si>
 </sst>
 </file>
@@ -7240,12 +7261,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318201D5-CE15-42FE-AD6F-C948F9B6134A}">
-  <dimension ref="A1:AC501"/>
+  <dimension ref="A1:AC502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M504" sqref="M504"/>
+      <selection pane="bottomLeft" activeCell="K495" sqref="K495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40383,6 +40404,71 @@
       </c>
       <c r="AC501" s="2" t="s">
         <v>2268</v>
+      </c>
+    </row>
+    <row r="502" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>2023006</v>
+      </c>
+      <c r="B502">
+        <v>2023</v>
+      </c>
+      <c r="C502" t="s">
+        <v>188</v>
+      </c>
+      <c r="D502" t="s">
+        <v>188</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F502" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H502" t="s">
+        <v>2269</v>
+      </c>
+      <c r="I502" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J502" t="s">
+        <v>30</v>
+      </c>
+      <c r="K502" t="s">
+        <v>31</v>
+      </c>
+      <c r="L502" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M502" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="N502" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="R502" s="6">
+        <v>21</v>
+      </c>
+      <c r="T502" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U502">
+        <v>24</v>
+      </c>
+      <c r="V502">
+        <v>1</v>
+      </c>
+      <c r="W502" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="Y502" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AA502" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AC502" s="2" t="s">
+        <v>2275</v>
       </c>
     </row>
   </sheetData>
@@ -40811,6 +40897,7 @@
     <hyperlink ref="AC499" r:id="rId421" xr:uid="{68B472BE-11B8-4E2C-9783-AAC12870590E}"/>
     <hyperlink ref="AC500" r:id="rId422" xr:uid="{B9A7A64F-F3A3-4D8D-A7A7-F9435A0FDD30}"/>
     <hyperlink ref="AC501" r:id="rId423" xr:uid="{F1186383-B365-495B-9DB1-CF21BCAEFE16}"/>
+    <hyperlink ref="AC502" r:id="rId424" xr:uid="{9CFB9B5E-10DE-4AB1-B1B8-492CF07EAF2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mutation_rate_literature_updating3.xlsx
+++ b/mutation_rate_literature_updating3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywang120\Desktop\mutation_literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yigua\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4678BA-6AD8-4881-9A0C-C2400097DD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD260BAB-529A-4E6F-8999-721EB0CB2003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="2570" windowWidth="23540" windowHeight="15290" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
+    <workbookView xWindow="9950" yWindow="3420" windowWidth="23870" windowHeight="16130" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8828" uniqueCount="2289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8845" uniqueCount="2302">
   <si>
     <t>PID</t>
   </si>
@@ -6899,9 +6899,6 @@
     <t>Peak_T2 line</t>
   </si>
   <si>
-    <t>2024007_01</t>
-  </si>
-  <si>
     <t>6.7e-9</t>
   </si>
   <si>
@@ -6909,24 +6906,80 @@
   </si>
   <si>
     <t>https://academic.oup.com/mbe/article/41/8/msae163/7727405</t>
+  </si>
+  <si>
+    <t>plants</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyropia yezoensis</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024001_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024002_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>snp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.97e-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.16e-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.99e-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>approx mutation counts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">llumina HiSeq XTen and NovaSeq </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>red alga</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xinzi Yu, Xianghai Tang, Kuipeng Xu, Lu Wang, Yunxiang Mao. Meiosis I causes a high spontaneous mutation rate in a multicellular red alga (Pyropia yezoensis) with a complex life cycle. Algal Research,2024, https://doi.org/10.1016/j.algal.2024.103694.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2211926424003060</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6934,7 +6987,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6945,15 +6998,22 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7308,34 +7368,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318201D5-CE15-42FE-AD6F-C948F9B6134A}">
-  <dimension ref="A1:AC504"/>
+  <dimension ref="A1:AC505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G508" sqref="G508"/>
+      <selection pane="bottomLeft" activeCell="V509" sqref="V509"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.4140625" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" customWidth="1"/>
-    <col min="16" max="16" width="4.81640625" customWidth="1"/>
-    <col min="17" max="17" width="3.7265625" customWidth="1"/>
-    <col min="19" max="19" width="12.7265625" customWidth="1"/>
-    <col min="22" max="22" width="7.1796875" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" customWidth="1"/>
+    <col min="17" max="17" width="3.75" customWidth="1"/>
+    <col min="19" max="19" width="12.75" customWidth="1"/>
+    <col min="22" max="22" width="7.1640625" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7424,7 +7484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2004001</v>
       </c>
@@ -7491,7 +7551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2004001</v>
       </c>
@@ -7556,7 +7616,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2004001</v>
       </c>
@@ -7621,7 +7681,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2004001</v>
       </c>
@@ -7686,7 +7746,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2007002</v>
       </c>
@@ -7758,7 +7818,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2007002</v>
       </c>
@@ -7826,7 +7886,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2007002</v>
       </c>
@@ -7894,7 +7954,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007002</v>
       </c>
@@ -7962,7 +8022,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008001</v>
       </c>
@@ -8029,7 +8089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2008001</v>
       </c>
@@ -8092,7 +8152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009001</v>
       </c>
@@ -8160,7 +8220,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2009002</v>
       </c>
@@ -8235,7 +8295,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2009004</v>
       </c>
@@ -8304,7 +8364,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2009004</v>
       </c>
@@ -8373,7 +8433,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2009004</v>
       </c>
@@ -8442,7 +8502,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2010001</v>
       </c>
@@ -8505,7 +8565,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2010002</v>
       </c>
@@ -8564,7 +8624,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2010002</v>
       </c>
@@ -8623,7 +8683,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2010002</v>
       </c>
@@ -8682,7 +8742,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2010002</v>
       </c>
@@ -8741,7 +8801,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2010003</v>
       </c>
@@ -8813,7 +8873,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2010004</v>
       </c>
@@ -8876,7 +8936,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2010005</v>
       </c>
@@ -8940,7 +9000,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2010005</v>
       </c>
@@ -9004,7 +9064,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2011001</v>
       </c>
@@ -9073,7 +9133,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2012001</v>
       </c>
@@ -9145,7 +9205,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2012001</v>
       </c>
@@ -9217,7 +9277,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2012002</v>
       </c>
@@ -9285,7 +9345,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2012002</v>
       </c>
@@ -9351,7 +9411,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2012002</v>
       </c>
@@ -9421,7 +9481,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2012002</v>
       </c>
@@ -9491,7 +9551,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2012003</v>
       </c>
@@ -9552,7 +9612,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2012004</v>
       </c>
@@ -9618,7 +9678,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2012005</v>
       </c>
@@ -9690,7 +9750,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2012006</v>
       </c>
@@ -9762,7 +9822,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2012007</v>
       </c>
@@ -9829,7 +9889,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2012008</v>
       </c>
@@ -9894,7 +9954,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2012009</v>
       </c>
@@ -9958,7 +10018,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2012010</v>
       </c>
@@ -10025,7 +10085,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2012010</v>
       </c>
@@ -10092,7 +10152,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2012010</v>
       </c>
@@ -10155,7 +10215,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2012010</v>
       </c>
@@ -10218,7 +10278,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2012011</v>
       </c>
@@ -10283,7 +10343,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2012011</v>
       </c>
@@ -10344,7 +10404,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2012012</v>
       </c>
@@ -10409,7 +10469,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2012012</v>
       </c>
@@ -10476,7 +10536,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2012012</v>
       </c>
@@ -10539,7 +10599,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2012012</v>
       </c>
@@ -10602,7 +10662,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2012013</v>
       </c>
@@ -10667,7 +10727,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2012013</v>
       </c>
@@ -10732,7 +10792,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2012013</v>
       </c>
@@ -10797,7 +10857,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2012013</v>
       </c>
@@ -10862,7 +10922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2012014</v>
       </c>
@@ -10931,7 +10991,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2012014</v>
       </c>
@@ -11000,7 +11060,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2012015</v>
       </c>
@@ -11065,7 +11125,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2012016</v>
       </c>
@@ -11137,7 +11197,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2012016</v>
       </c>
@@ -11209,7 +11269,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2012016</v>
       </c>
@@ -11281,7 +11341,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2012016</v>
       </c>
@@ -11353,7 +11413,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2012016</v>
       </c>
@@ -11425,7 +11485,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2012016</v>
       </c>
@@ -11497,7 +11557,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2012017</v>
       </c>
@@ -11568,7 +11628,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2012017</v>
       </c>
@@ -11641,7 +11701,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2012017</v>
       </c>
@@ -11712,7 +11772,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2012017</v>
       </c>
@@ -11785,7 +11845,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2012017</v>
       </c>
@@ -11856,7 +11916,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2012017</v>
       </c>
@@ -11929,7 +11989,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2012019</v>
       </c>
@@ -11999,7 +12059,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2012019</v>
       </c>
@@ -12069,7 +12129,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2013001</v>
       </c>
@@ -12137,7 +12197,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2013001</v>
       </c>
@@ -12201,7 +12261,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2013001</v>
       </c>
@@ -12269,7 +12329,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2013001</v>
       </c>
@@ -12337,7 +12397,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2013001</v>
       </c>
@@ -12405,7 +12465,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2013001</v>
       </c>
@@ -12469,7 +12529,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2013001</v>
       </c>
@@ -12537,7 +12597,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2013001</v>
       </c>
@@ -12605,7 +12665,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2013002</v>
       </c>
@@ -12669,7 +12729,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2013002</v>
       </c>
@@ -12733,7 +12793,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2013003</v>
       </c>
@@ -12801,7 +12861,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2013003</v>
       </c>
@@ -12865,7 +12925,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2013003</v>
       </c>
@@ -12929,7 +12989,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2013004</v>
       </c>
@@ -13001,7 +13061,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2013005</v>
       </c>
@@ -13069,7 +13129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2014001</v>
       </c>
@@ -13130,7 +13190,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2014001</v>
       </c>
@@ -13191,7 +13251,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2014003</v>
       </c>
@@ -13260,7 +13320,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2014004</v>
       </c>
@@ -13329,7 +13389,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2014004</v>
       </c>
@@ -13398,7 +13458,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2014004</v>
       </c>
@@ -13467,7 +13527,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2014004</v>
       </c>
@@ -13532,7 +13592,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2014005</v>
       </c>
@@ -13599,7 +13659,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2014005</v>
       </c>
@@ -13666,7 +13726,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2014005</v>
       </c>
@@ -13733,7 +13793,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2014005</v>
       </c>
@@ -13800,7 +13860,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2014006</v>
       </c>
@@ -13867,7 +13927,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2014006</v>
       </c>
@@ -13932,7 +13992,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2014006</v>
       </c>
@@ -13997,7 +14057,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2014006</v>
       </c>
@@ -14062,7 +14122,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2014007</v>
       </c>
@@ -14129,7 +14189,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2014008</v>
       </c>
@@ -14192,7 +14252,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2014009</v>
       </c>
@@ -14255,7 +14315,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2014010</v>
       </c>
@@ -14322,7 +14382,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2015001</v>
       </c>
@@ -14394,7 +14454,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2015002</v>
       </c>
@@ -14457,7 +14517,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2015002</v>
       </c>
@@ -14518,7 +14578,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2015002</v>
       </c>
@@ -14579,7 +14639,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2015002</v>
       </c>
@@ -14640,7 +14700,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2015004</v>
       </c>
@@ -14703,7 +14763,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2015004</v>
       </c>
@@ -14766,7 +14826,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2015004</v>
       </c>
@@ -14829,7 +14889,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2015004</v>
       </c>
@@ -14892,7 +14952,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2015004</v>
       </c>
@@ -14955,7 +15015,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2015004</v>
       </c>
@@ -15018,7 +15078,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2015004</v>
       </c>
@@ -15081,7 +15141,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2015004</v>
       </c>
@@ -15144,7 +15204,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2015005</v>
       </c>
@@ -15214,7 +15274,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2015006</v>
       </c>
@@ -15286,7 +15346,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2015006</v>
       </c>
@@ -15360,7 +15420,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2015006</v>
       </c>
@@ -15430,7 +15490,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2015006</v>
       </c>
@@ -15500,7 +15560,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2015007</v>
       </c>
@@ -15568,7 +15628,7 @@
       </c>
       <c r="AC123" s="1"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2015007</v>
       </c>
@@ -15636,7 +15696,7 @@
       </c>
       <c r="AC124" s="1"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2015007</v>
       </c>
@@ -15704,7 +15764,7 @@
       </c>
       <c r="AC125" s="1"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2015010</v>
       </c>
@@ -15769,7 +15829,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2015010</v>
       </c>
@@ -15836,7 +15896,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2015010</v>
       </c>
@@ -15903,7 +15963,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2015010</v>
       </c>
@@ -15970,7 +16030,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2015011</v>
       </c>
@@ -16038,7 +16098,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2015011</v>
       </c>
@@ -16104,7 +16164,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2015013</v>
       </c>
@@ -16173,7 +16233,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2015013</v>
       </c>
@@ -16242,7 +16302,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2015013</v>
       </c>
@@ -16307,7 +16367,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2015013</v>
       </c>
@@ -16372,7 +16432,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2015014</v>
       </c>
@@ -16435,7 +16495,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2015014</v>
       </c>
@@ -16498,7 +16558,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2015014</v>
       </c>
@@ -16561,7 +16621,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2015014</v>
       </c>
@@ -16624,7 +16684,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2015014</v>
       </c>
@@ -16687,7 +16747,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2015014</v>
       </c>
@@ -16750,7 +16810,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2015014</v>
       </c>
@@ -16813,7 +16873,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2015014</v>
       </c>
@@ -16876,7 +16936,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2015014</v>
       </c>
@@ -16939,7 +16999,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2015014</v>
       </c>
@@ -17002,7 +17062,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2015014</v>
       </c>
@@ -17065,7 +17125,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2015014</v>
       </c>
@@ -17128,7 +17188,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2015014</v>
       </c>
@@ -17191,7 +17251,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2015014</v>
       </c>
@@ -17254,7 +17314,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2015014</v>
       </c>
@@ -17317,7 +17377,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2015014</v>
       </c>
@@ -17380,7 +17440,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2015014</v>
       </c>
@@ -17445,7 +17505,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2015014</v>
       </c>
@@ -17510,7 +17570,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2015014</v>
       </c>
@@ -17571,7 +17631,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2015014</v>
       </c>
@@ -17632,7 +17692,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2015015</v>
       </c>
@@ -17699,7 +17759,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2015015</v>
       </c>
@@ -17762,7 +17822,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2016001</v>
       </c>
@@ -17827,7 +17887,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2016001</v>
       </c>
@@ -17892,7 +17952,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2016001</v>
       </c>
@@ -17957,7 +18017,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2016001</v>
       </c>
@@ -18022,7 +18082,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2016002</v>
       </c>
@@ -18091,7 +18151,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2016002</v>
       </c>
@@ -18160,7 +18220,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2016002</v>
       </c>
@@ -18229,7 +18289,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2016002</v>
       </c>
@@ -18294,7 +18354,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2016003</v>
       </c>
@@ -18364,7 +18424,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2016003</v>
       </c>
@@ -18432,7 +18492,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2016003</v>
       </c>
@@ -18502,7 +18562,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2016004</v>
       </c>
@@ -18570,7 +18630,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2016004</v>
       </c>
@@ -18634,7 +18694,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2016004</v>
       </c>
@@ -18698,7 +18758,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2016004</v>
       </c>
@@ -18762,7 +18822,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2016005</v>
       </c>
@@ -18830,7 +18890,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2016005</v>
       </c>
@@ -18898,7 +18958,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2016005</v>
       </c>
@@ -18966,7 +19026,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2016005</v>
       </c>
@@ -19034,7 +19094,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2016006</v>
       </c>
@@ -19104,7 +19164,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2016006</v>
       </c>
@@ -19174,7 +19234,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2016006</v>
       </c>
@@ -19244,7 +19304,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2016006</v>
       </c>
@@ -19314,7 +19374,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2016007</v>
       </c>
@@ -19383,7 +19443,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2016008</v>
       </c>
@@ -19452,7 +19512,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2016008</v>
       </c>
@@ -19517,7 +19577,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2016008</v>
       </c>
@@ -19586,7 +19646,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2016008</v>
       </c>
@@ -19655,7 +19715,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2016009</v>
       </c>
@@ -19727,7 +19787,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2016009</v>
       </c>
@@ -19799,7 +19859,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2016009</v>
       </c>
@@ -19869,7 +19929,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2016010</v>
       </c>
@@ -19941,7 +20001,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2016011</v>
       </c>
@@ -20012,7 +20072,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2016011</v>
       </c>
@@ -20078,7 +20138,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2016011</v>
       </c>
@@ -20144,7 +20204,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2016011</v>
       </c>
@@ -20210,7 +20270,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2016012</v>
       </c>
@@ -20282,7 +20342,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2016013</v>
       </c>
@@ -20347,7 +20407,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2016014</v>
       </c>
@@ -20414,7 +20474,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2016014</v>
       </c>
@@ -20477,7 +20537,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2016014</v>
       </c>
@@ -20540,7 +20600,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2016014</v>
       </c>
@@ -20603,7 +20663,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2017001</v>
       </c>
@@ -20673,7 +20733,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2017003</v>
       </c>
@@ -20733,7 +20793,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2017003</v>
       </c>
@@ -20796,7 +20856,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2017003</v>
       </c>
@@ -20859,7 +20919,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2017003</v>
       </c>
@@ -20922,7 +20982,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2017004</v>
       </c>
@@ -20991,7 +21051,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2017005</v>
       </c>
@@ -21063,7 +21123,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2017006</v>
       </c>
@@ -21131,7 +21191,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2017006</v>
       </c>
@@ -21199,7 +21259,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2017006</v>
       </c>
@@ -21267,7 +21327,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2017006</v>
       </c>
@@ -21335,7 +21395,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2017007</v>
       </c>
@@ -21404,7 +21464,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2017007</v>
       </c>
@@ -21469,7 +21529,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2017007</v>
       </c>
@@ -21534,7 +21594,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2017007</v>
       </c>
@@ -21599,7 +21659,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2017007</v>
       </c>
@@ -21668,7 +21728,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2017007</v>
       </c>
@@ -21733,7 +21793,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2017007</v>
       </c>
@@ -21798,7 +21858,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2017007</v>
       </c>
@@ -21863,7 +21923,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2017007</v>
       </c>
@@ -21928,7 +21988,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2017007</v>
       </c>
@@ -21993,7 +22053,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2017007</v>
       </c>
@@ -22058,7 +22118,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2017007</v>
       </c>
@@ -22123,7 +22183,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2017007</v>
       </c>
@@ -22188,7 +22248,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2017007</v>
       </c>
@@ -22253,7 +22313,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2017007</v>
       </c>
@@ -22318,7 +22378,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2017008</v>
       </c>
@@ -22385,7 +22445,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2017008</v>
       </c>
@@ -22452,7 +22512,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2017008</v>
       </c>
@@ -22519,7 +22579,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2017008</v>
       </c>
@@ -22582,7 +22642,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2017009</v>
       </c>
@@ -22654,7 +22714,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2017010</v>
       </c>
@@ -22728,7 +22788,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2017010</v>
       </c>
@@ -22798,7 +22858,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2017010</v>
       </c>
@@ -22872,7 +22932,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2017010</v>
       </c>
@@ -22946,7 +23006,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2017011</v>
       </c>
@@ -23012,7 +23072,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2017012</v>
       </c>
@@ -23084,7 +23144,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2017013</v>
       </c>
@@ -23147,7 +23207,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2017014</v>
       </c>
@@ -23210,7 +23270,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2017014</v>
       </c>
@@ -23271,7 +23331,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2017015</v>
       </c>
@@ -23343,7 +23403,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2017015</v>
       </c>
@@ -23415,7 +23475,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2017015</v>
       </c>
@@ -23483,7 +23543,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2017015</v>
       </c>
@@ -23551,7 +23611,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2017016</v>
       </c>
@@ -23618,7 +23678,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2017017</v>
       </c>
@@ -23679,7 +23739,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2017017</v>
       </c>
@@ -23740,7 +23800,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2018002</v>
       </c>
@@ -23810,7 +23870,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2018003</v>
       </c>
@@ -23880,7 +23940,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2018003</v>
       </c>
@@ -23946,7 +24006,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2018003</v>
       </c>
@@ -24012,7 +24072,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2018003</v>
       </c>
@@ -24078,7 +24138,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2018004</v>
       </c>
@@ -24148,7 +24208,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2018005</v>
       </c>
@@ -24214,7 +24274,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2018007</v>
       </c>
@@ -24281,7 +24341,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2018007</v>
       </c>
@@ -24348,7 +24408,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2018007</v>
       </c>
@@ -24413,7 +24473,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2018008</v>
       </c>
@@ -24482,7 +24542,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2018008</v>
       </c>
@@ -24551,7 +24611,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2018008</v>
       </c>
@@ -24620,7 +24680,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2018008</v>
       </c>
@@ -24689,7 +24749,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2018009</v>
       </c>
@@ -24761,7 +24821,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2019001</v>
       </c>
@@ -24837,7 +24897,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2019001</v>
       </c>
@@ -24907,7 +24967,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2019001</v>
       </c>
@@ -24977,7 +25037,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2019001</v>
       </c>
@@ -25047,7 +25107,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2019002</v>
       </c>
@@ -25116,7 +25176,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2019002</v>
       </c>
@@ -25185,7 +25245,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2019002</v>
       </c>
@@ -25254,7 +25314,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2019002</v>
       </c>
@@ -25323,7 +25383,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2019002</v>
       </c>
@@ -25392,7 +25452,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2019002</v>
       </c>
@@ -25461,7 +25521,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2019002</v>
       </c>
@@ -25530,7 +25590,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2019002</v>
       </c>
@@ -25599,7 +25659,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2019002</v>
       </c>
@@ -25668,7 +25728,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2019002</v>
       </c>
@@ -25737,7 +25797,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2019003</v>
       </c>
@@ -25800,7 +25860,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2019003</v>
       </c>
@@ -25865,7 +25925,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2019004</v>
       </c>
@@ -25935,7 +25995,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2019004</v>
       </c>
@@ -26001,7 +26061,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2019004</v>
       </c>
@@ -26067,7 +26127,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2019004</v>
       </c>
@@ -26133,7 +26193,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2019004</v>
       </c>
@@ -26203,7 +26263,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2019004</v>
       </c>
@@ -26269,7 +26329,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2019004</v>
       </c>
@@ -26335,7 +26395,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2019004</v>
       </c>
@@ -26401,7 +26461,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2019004</v>
       </c>
@@ -26471,7 +26531,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2019004</v>
       </c>
@@ -26535,7 +26595,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2019004</v>
       </c>
@@ -26601,7 +26661,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2019004</v>
       </c>
@@ -26667,7 +26727,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2019004</v>
       </c>
@@ -26737,7 +26797,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2019004</v>
       </c>
@@ -26803,7 +26863,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2019004</v>
       </c>
@@ -26869,7 +26929,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2019004</v>
       </c>
@@ -26939,7 +26999,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2019004</v>
       </c>
@@ -27005,7 +27065,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2019004</v>
       </c>
@@ -27071,7 +27131,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2019004</v>
       </c>
@@ -27137,7 +27197,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2019005</v>
       </c>
@@ -27207,7 +27267,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2019005</v>
       </c>
@@ -27277,7 +27337,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2019006</v>
       </c>
@@ -27341,7 +27401,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2019007</v>
       </c>
@@ -27411,7 +27471,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2019008</v>
       </c>
@@ -27478,7 +27538,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2019008</v>
       </c>
@@ -27543,7 +27603,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2019008</v>
       </c>
@@ -27610,7 +27670,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2019008</v>
       </c>
@@ -27677,7 +27737,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2019009</v>
       </c>
@@ -27744,7 +27804,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2019009</v>
       </c>
@@ -27805,7 +27865,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2019009</v>
       </c>
@@ -27868,7 +27928,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2019009</v>
       </c>
@@ -27931,7 +27991,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2019010</v>
       </c>
@@ -27998,7 +28058,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2019010</v>
       </c>
@@ -28066,7 +28126,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2019011</v>
       </c>
@@ -28130,7 +28190,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2019011</v>
       </c>
@@ -28192,7 +28252,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2019011</v>
       </c>
@@ -28254,7 +28314,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2019011</v>
       </c>
@@ -28316,7 +28376,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2019012</v>
       </c>
@@ -28381,7 +28441,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2019013</v>
       </c>
@@ -28451,7 +28511,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2019013</v>
       </c>
@@ -28519,7 +28579,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2019013</v>
       </c>
@@ -28589,7 +28649,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2019013</v>
       </c>
@@ -28659,7 +28719,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2019013</v>
       </c>
@@ -28731,7 +28791,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2019013</v>
       </c>
@@ -28801,7 +28861,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2019013</v>
       </c>
@@ -28873,7 +28933,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2019013</v>
       </c>
@@ -28945,7 +29005,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2019014</v>
       </c>
@@ -29013,7 +29073,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2019014</v>
       </c>
@@ -29081,7 +29141,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2019014</v>
       </c>
@@ -29149,7 +29209,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2019014</v>
       </c>
@@ -29217,7 +29277,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2019014</v>
       </c>
@@ -29285,7 +29345,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2019014</v>
       </c>
@@ -29353,7 +29413,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2019015</v>
       </c>
@@ -29419,7 +29479,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2019016</v>
       </c>
@@ -29486,7 +29546,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2019016</v>
       </c>
@@ -29551,7 +29611,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2019016</v>
       </c>
@@ -29616,7 +29676,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2019016</v>
       </c>
@@ -29681,7 +29741,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2019017</v>
       </c>
@@ -29750,7 +29810,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2019018</v>
       </c>
@@ -29818,7 +29878,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2019018</v>
       </c>
@@ -29888,7 +29948,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2020001</v>
       </c>
@@ -29960,7 +30020,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2020001</v>
       </c>
@@ -30032,7 +30092,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2020001</v>
       </c>
@@ -30104,7 +30164,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2020002</v>
       </c>
@@ -30173,7 +30233,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2020002</v>
       </c>
@@ -30238,7 +30298,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2020002</v>
       </c>
@@ -30303,7 +30363,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2020002</v>
       </c>
@@ -30368,7 +30428,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2020003</v>
       </c>
@@ -30440,7 +30500,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2020004</v>
       </c>
@@ -30504,7 +30564,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2020004</v>
       </c>
@@ -30568,7 +30628,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2020004</v>
       </c>
@@ -30632,7 +30692,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2020004</v>
       </c>
@@ -30696,7 +30756,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2020004</v>
       </c>
@@ -30760,7 +30820,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2020004</v>
       </c>
@@ -30824,7 +30884,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2020005</v>
       </c>
@@ -30891,7 +30951,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2020006</v>
       </c>
@@ -30963,7 +31023,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2020006</v>
       </c>
@@ -31031,7 +31091,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2020006</v>
       </c>
@@ -31099,7 +31159,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2020006</v>
       </c>
@@ -31167,7 +31227,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2020006</v>
       </c>
@@ -31239,7 +31299,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2020006</v>
       </c>
@@ -31307,7 +31367,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2020006</v>
       </c>
@@ -31375,7 +31435,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2020006</v>
       </c>
@@ -31443,7 +31503,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2020007</v>
       </c>
@@ -31512,7 +31572,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2020007</v>
       </c>
@@ -31579,7 +31639,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2020007</v>
       </c>
@@ -31646,7 +31706,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2020007</v>
       </c>
@@ -31713,7 +31773,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2020007</v>
       </c>
@@ -31782,7 +31842,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2020007</v>
       </c>
@@ -31849,7 +31909,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2020007</v>
       </c>
@@ -31916,7 +31976,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2020007</v>
       </c>
@@ -31983,7 +32043,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2020007</v>
       </c>
@@ -32052,7 +32112,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2020007</v>
       </c>
@@ -32119,7 +32179,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2020007</v>
       </c>
@@ -32186,7 +32246,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2020007</v>
       </c>
@@ -32253,7 +32313,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2020007</v>
       </c>
@@ -32322,7 +32382,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2020007</v>
       </c>
@@ -32389,7 +32449,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2020007</v>
       </c>
@@ -32456,7 +32516,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2020007</v>
       </c>
@@ -32523,7 +32583,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2020008</v>
       </c>
@@ -32589,7 +32649,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2020008</v>
       </c>
@@ -32655,7 +32715,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2020009</v>
       </c>
@@ -32722,7 +32782,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2020009</v>
       </c>
@@ -32789,7 +32849,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2020010</v>
       </c>
@@ -32861,7 +32921,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2020011</v>
       </c>
@@ -32930,7 +32990,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2020011</v>
       </c>
@@ -33002,7 +33062,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2021001</v>
       </c>
@@ -33074,7 +33134,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2021002</v>
       </c>
@@ -33144,7 +33204,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2021003</v>
       </c>
@@ -33206,7 +33266,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2021005</v>
       </c>
@@ -33272,7 +33332,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2021006</v>
       </c>
@@ -33339,7 +33399,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2021007</v>
       </c>
@@ -33409,7 +33469,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2021007</v>
       </c>
@@ -33479,7 +33539,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2021007</v>
       </c>
@@ -33549,7 +33609,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2021007</v>
       </c>
@@ -33619,7 +33679,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2021008</v>
       </c>
@@ -33684,7 +33744,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2021008</v>
       </c>
@@ -33747,7 +33807,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2021008</v>
       </c>
@@ -33810,7 +33870,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2021008</v>
       </c>
@@ -33873,7 +33933,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2021009</v>
       </c>
@@ -33942,7 +34002,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2021009</v>
       </c>
@@ -34007,7 +34067,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2021009</v>
       </c>
@@ -34072,7 +34132,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2021009</v>
       </c>
@@ -34137,7 +34197,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2021010</v>
       </c>
@@ -34201,7 +34261,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2021011</v>
       </c>
@@ -34264,7 +34324,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2021011</v>
       </c>
@@ -34327,7 +34387,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2022001</v>
       </c>
@@ -34391,7 +34451,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2022001</v>
       </c>
@@ -34455,7 +34515,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2022002</v>
       </c>
@@ -34525,7 +34585,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2022002</v>
       </c>
@@ -34591,7 +34651,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2022002</v>
       </c>
@@ -34657,7 +34717,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="409" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2022002</v>
       </c>
@@ -34723,7 +34783,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2022003</v>
       </c>
@@ -34793,7 +34853,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2022004</v>
       </c>
@@ -34861,7 +34921,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="412" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2022004</v>
       </c>
@@ -34929,7 +34989,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="413" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2022005</v>
       </c>
@@ -34996,7 +35056,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="414" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2022006</v>
       </c>
@@ -35066,7 +35126,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="415" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2022007</v>
       </c>
@@ -35140,7 +35200,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2022007</v>
       </c>
@@ -35214,7 +35274,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="417" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2022007</v>
       </c>
@@ -35288,7 +35348,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="418" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2022007</v>
       </c>
@@ -35362,7 +35422,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2022007</v>
       </c>
@@ -35436,7 +35496,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="420" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2022007</v>
       </c>
@@ -35506,7 +35566,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="421" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2022007</v>
       </c>
@@ -35580,7 +35640,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="422" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2022007</v>
       </c>
@@ -35654,7 +35714,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="423" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2022007</v>
       </c>
@@ -35728,7 +35788,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2022007</v>
       </c>
@@ -35798,7 +35858,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2022007</v>
       </c>
@@ -35872,7 +35932,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2022007</v>
       </c>
@@ -35946,7 +36006,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2022008</v>
       </c>
@@ -36007,7 +36067,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2022009</v>
       </c>
@@ -36066,7 +36126,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2023001</v>
       </c>
@@ -36126,7 +36186,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2023001</v>
       </c>
@@ -36186,7 +36246,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2023001</v>
       </c>
@@ -36246,7 +36306,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2023001</v>
       </c>
@@ -36306,7 +36366,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2023001</v>
       </c>
@@ -36366,7 +36426,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2023001</v>
       </c>
@@ -36426,7 +36486,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2023001</v>
       </c>
@@ -36486,7 +36546,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2023001</v>
       </c>
@@ -36546,7 +36606,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2023001</v>
       </c>
@@ -36606,7 +36666,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2023001</v>
       </c>
@@ -36666,7 +36726,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2023001</v>
       </c>
@@ -36726,7 +36786,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2023001</v>
       </c>
@@ -36786,7 +36846,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2023001</v>
       </c>
@@ -36846,7 +36906,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2023001</v>
       </c>
@@ -36906,7 +36966,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2023001</v>
       </c>
@@ -36966,7 +37026,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2023001</v>
       </c>
@@ -37026,7 +37086,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2023001</v>
       </c>
@@ -37086,7 +37146,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2023001</v>
       </c>
@@ -37146,7 +37206,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2023001</v>
       </c>
@@ -37206,7 +37266,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2023001</v>
       </c>
@@ -37266,7 +37326,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2023001</v>
       </c>
@@ -37326,7 +37386,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2023001</v>
       </c>
@@ -37386,7 +37446,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2023001</v>
       </c>
@@ -37446,7 +37506,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2023001</v>
       </c>
@@ -37506,7 +37566,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2023001</v>
       </c>
@@ -37566,7 +37626,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2023001</v>
       </c>
@@ -37626,7 +37686,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2023001</v>
       </c>
@@ -37686,7 +37746,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2023001</v>
       </c>
@@ -37746,7 +37806,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2023001</v>
       </c>
@@ -37806,7 +37866,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2023001</v>
       </c>
@@ -37866,7 +37926,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2023001</v>
       </c>
@@ -37926,7 +37986,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2023001</v>
       </c>
@@ -37986,7 +38046,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2023001</v>
       </c>
@@ -38046,7 +38106,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2023001</v>
       </c>
@@ -38106,7 +38166,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2023001</v>
       </c>
@@ -38166,7 +38226,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2023001</v>
       </c>
@@ -38226,7 +38286,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2023001</v>
       </c>
@@ -38286,7 +38346,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2023001</v>
       </c>
@@ -38346,7 +38406,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2023001</v>
       </c>
@@ -38406,7 +38466,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2023001</v>
       </c>
@@ -38466,7 +38526,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2023001</v>
       </c>
@@ -38526,7 +38586,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="470" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2023001</v>
       </c>
@@ -38586,7 +38646,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2023001</v>
       </c>
@@ -38646,7 +38706,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2023001</v>
       </c>
@@ -38706,7 +38766,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2023001</v>
       </c>
@@ -38766,7 +38826,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2023001</v>
       </c>
@@ -38826,7 +38886,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2023001</v>
       </c>
@@ -38886,7 +38946,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2023001</v>
       </c>
@@ -38946,7 +39006,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2023001</v>
       </c>
@@ -39006,7 +39066,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2023001</v>
       </c>
@@ -39066,7 +39126,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2023001</v>
       </c>
@@ -39126,7 +39186,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2023001</v>
       </c>
@@ -39186,7 +39246,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2023001</v>
       </c>
@@ -39246,7 +39306,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2023001</v>
       </c>
@@ -39306,7 +39366,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2023001</v>
       </c>
@@ -39366,7 +39426,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2023001</v>
       </c>
@@ -39426,7 +39486,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2023001</v>
       </c>
@@ -39486,7 +39546,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2023001</v>
       </c>
@@ -39546,7 +39606,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2023001</v>
       </c>
@@ -39606,7 +39666,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2023001</v>
       </c>
@@ -39666,7 +39726,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2023001</v>
       </c>
@@ -39726,7 +39786,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2023001</v>
       </c>
@@ -39786,7 +39846,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2023001</v>
       </c>
@@ -39846,7 +39906,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2023001</v>
       </c>
@@ -39906,7 +39966,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2023001</v>
       </c>
@@ -39966,7 +40026,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2023001</v>
       </c>
@@ -40026,7 +40086,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2023001</v>
       </c>
@@ -40086,7 +40146,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2023001</v>
       </c>
@@ -40146,7 +40206,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2023002</v>
       </c>
@@ -40202,7 +40262,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2023003</v>
       </c>
@@ -40267,7 +40327,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2023003</v>
       </c>
@@ -40332,7 +40392,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="500" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2023004</v>
       </c>
@@ -40391,7 +40451,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2023005</v>
       </c>
@@ -40453,7 +40513,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2023006</v>
       </c>
@@ -40518,7 +40578,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2023007</v>
       </c>
@@ -40586,7 +40646,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="504" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2024001</v>
       </c>
@@ -40606,7 +40666,7 @@
         <v>48</v>
       </c>
       <c r="H504" t="s">
-        <v>2285</v>
+        <v>2291</v>
       </c>
       <c r="I504" t="s">
         <v>2018</v>
@@ -40618,7 +40678,7 @@
         <v>31</v>
       </c>
       <c r="L504" s="4" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="R504" s="8">
         <v>6563</v>
@@ -40629,17 +40689,83 @@
       <c r="U504">
         <v>4</v>
       </c>
-      <c r="V504" s="9">
-        <v>45543</v>
-      </c>
+      <c r="V504" s="9"/>
       <c r="W504" s="4" t="s">
         <v>1690</v>
       </c>
       <c r="AA504" t="s">
+        <v>2286</v>
+      </c>
+      <c r="AC504" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="AC504" s="1" t="s">
+    </row>
+    <row r="505" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>2024002</v>
+      </c>
+      <c r="B505">
+        <v>2024</v>
+      </c>
+      <c r="C505" t="s">
         <v>2288</v>
+      </c>
+      <c r="D505" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E505" s="7" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F505" t="s">
+        <v>2289</v>
+      </c>
+      <c r="G505" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H505" t="s">
+        <v>2292</v>
+      </c>
+      <c r="I505" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J505" t="s">
+        <v>2293</v>
+      </c>
+      <c r="K505" t="s">
+        <v>31</v>
+      </c>
+      <c r="L505" s="4" t="s">
+        <v>2294</v>
+      </c>
+      <c r="M505" s="4" t="s">
+        <v>2295</v>
+      </c>
+      <c r="N505" s="4" t="s">
+        <v>2296</v>
+      </c>
+      <c r="R505" s="8">
+        <v>20</v>
+      </c>
+      <c r="S505">
+        <v>683975023</v>
+      </c>
+      <c r="T505" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U505">
+        <v>5</v>
+      </c>
+      <c r="W505" s="4" t="s">
+        <v>2298</v>
+      </c>
+      <c r="Z505" t="s">
+        <v>2297</v>
+      </c>
+      <c r="AA505" t="s">
+        <v>2300</v>
+      </c>
+      <c r="AC505" s="1" t="s">
+        <v>2301</v>
       </c>
     </row>
   </sheetData>
@@ -41072,6 +41198,7 @@
     <hyperlink ref="AC502" r:id="rId424" xr:uid="{9CFB9B5E-10DE-4AB1-B1B8-492CF07EAF2B}"/>
     <hyperlink ref="AC503" r:id="rId425" xr:uid="{B9B868B2-A9CF-415F-B2C8-A71B021703C3}"/>
     <hyperlink ref="AC504" r:id="rId426" xr:uid="{187E2094-C54D-4707-9DAC-C00BC73602BA}"/>
+    <hyperlink ref="AC505" r:id="rId427" xr:uid="{AA3DE5F5-8CEA-4EDE-ACF1-28C535A726DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41085,13 +41212,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -41108,7 +41235,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1415</v>
       </c>
@@ -41125,7 +41252,7 @@
         <v>8.8124999999999992E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1916</v>
       </c>
@@ -41142,7 +41269,7 @@
         <v>1.31196818727487E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -41159,7 +41286,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1880</v>
       </c>
@@ -41176,7 +41303,7 @@
         <v>3.1523190636401099E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1628</v>
       </c>
@@ -41193,7 +41320,7 @@
         <v>2.9474151000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1066</v>
       </c>
@@ -41210,7 +41337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>700</v>
       </c>
@@ -41227,7 +41354,7 @@
         <v>7.3524660000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1813</v>
       </c>
@@ -41244,7 +41371,7 @@
         <v>3.8173971548017302E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1864</v>
       </c>
@@ -41261,7 +41388,7 @@
         <v>9.5861526786502498E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -41278,7 +41405,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1943</v>
       </c>
@@ -41295,7 +41422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1760</v>
       </c>
@@ -41312,7 +41439,7 @@
         <v>3.2154393732242198E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>951</v>
       </c>
@@ -41329,7 +41456,7 @@
         <v>1.6660000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1992</v>
       </c>
@@ -41346,7 +41473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>887</v>
       </c>
@@ -41363,7 +41490,7 @@
         <v>1.21295E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1286</v>
       </c>
@@ -41380,7 +41507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1891</v>
       </c>
@@ -41397,7 +41524,7 @@
         <v>1.1394158804578199E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2026</v>
       </c>
@@ -41414,7 +41541,7 @@
         <v>7.4609999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -41431,7 +41558,7 @@
         <v>2.9072680000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1621</v>
       </c>
@@ -41448,7 +41575,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>663</v>
       </c>
@@ -41465,7 +41592,7 @@
         <v>1.49131E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1797</v>
       </c>
@@ -41482,7 +41609,7 @@
         <v>1.7179000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1844</v>
       </c>
@@ -41499,7 +41626,7 @@
         <v>3.3769084824164502E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1748</v>
       </c>
@@ -41516,7 +41643,7 @@
         <v>9.4342500953643604E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1928</v>
       </c>
@@ -41533,7 +41660,7 @@
         <v>1.01260118766569E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1920</v>
       </c>
@@ -41550,7 +41677,7 @@
         <v>2.6042666738900601E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1951</v>
       </c>
@@ -41567,7 +41694,7 @@
         <v>4.2086301875087504E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1939</v>
       </c>
@@ -41584,7 +41711,7 @@
         <v>3.1769727510742498E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2032</v>
       </c>
@@ -41601,7 +41728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -41618,7 +41745,7 @@
         <v>3.1960000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>983</v>
       </c>
@@ -41635,7 +41762,7 @@
         <v>2.33E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1977</v>
       </c>
@@ -41652,7 +41779,7 @@
         <v>6.6912157328433497E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>894</v>
       </c>
@@ -41669,7 +41796,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1970</v>
       </c>
@@ -41686,7 +41813,7 @@
         <v>2.1248297738901902E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1908</v>
       </c>
@@ -41703,7 +41830,7 @@
         <v>8.7699160795129908E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1752</v>
       </c>
@@ -41720,7 +41847,7 @@
         <v>5.2214814552629602E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -41737,7 +41864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1955</v>
       </c>
@@ -41754,7 +41881,7 @@
         <v>6.4017839999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1777</v>
       </c>
@@ -41771,7 +41898,7 @@
         <v>7.7960334004117801E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2035</v>
       </c>
@@ -41788,7 +41915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1377</v>
       </c>
@@ -41805,7 +41932,7 @@
         <v>1.3180000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>737</v>
       </c>
@@ -41822,7 +41949,7 @@
         <v>2.2030000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -41839,7 +41966,7 @@
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -41856,7 +41983,7 @@
         <v>1.4459008000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1585</v>
       </c>
@@ -41873,7 +42000,7 @@
         <v>1.1968384E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1709</v>
       </c>
@@ -41890,7 +42017,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1723</v>
       </c>
@@ -41907,7 +42034,7 @@
         <v>3.2299999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1450</v>
       </c>
@@ -41924,7 +42051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1857</v>
       </c>
@@ -41941,7 +42068,7 @@
         <v>4.2323875850490498E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1671</v>
       </c>
@@ -41958,7 +42085,7 @@
         <v>3.74381816015271E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>849</v>
       </c>
@@ -41975,7 +42102,7 @@
         <v>3.8004979999999998E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1871</v>
       </c>
@@ -41992,7 +42119,7 @@
         <v>1.18970488374806E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1784</v>
       </c>
@@ -42009,7 +42136,7 @@
         <v>3.2073805679047199E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1840</v>
       </c>
@@ -42026,7 +42153,7 @@
         <v>2.4492953113405599E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1159</v>
       </c>
@@ -42043,7 +42170,7 @@
         <v>1.1915000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1981</v>
       </c>
@@ -42060,7 +42187,7 @@
         <v>2.13836578885606E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1499</v>
       </c>
@@ -42077,7 +42204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1480</v>
       </c>
@@ -42094,7 +42221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1490</v>
       </c>
@@ -42111,7 +42238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>606</v>
       </c>
@@ -42128,7 +42255,7 @@
         <v>1.9237055999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1848</v>
       </c>
@@ -42145,7 +42272,7 @@
         <v>2.8790285281246899E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -42162,7 +42289,7 @@
         <v>1.0828960000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1836</v>
       </c>
@@ -42179,7 +42306,7 @@
         <v>2.9886513608581001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1790</v>
       </c>
@@ -42196,7 +42323,7 @@
         <v>9.0327129521486603E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1809</v>
       </c>
@@ -42213,7 +42340,7 @@
         <v>1.86066017058012E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1829</v>
       </c>
@@ -42230,7 +42357,7 @@
         <v>2.9961525060907702E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2034</v>
       </c>
@@ -42247,7 +42374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1535</v>
       </c>
@@ -42264,7 +42391,7 @@
         <v>2.8735319999999998E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1805</v>
       </c>
@@ -42281,7 +42408,7 @@
         <v>3.08855360632642E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1227</v>
       </c>
@@ -42298,7 +42425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1566</v>
       </c>
@@ -42315,7 +42442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2030</v>
       </c>
@@ -42332,7 +42459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1884</v>
       </c>
@@ -42349,7 +42476,7 @@
         <v>1.64E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1877</v>
       </c>
@@ -42366,7 +42493,7 @@
         <v>2.1273180949723199E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -42383,7 +42510,7 @@
         <v>4.1555560000000004E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1867</v>
       </c>
@@ -42400,7 +42527,7 @@
         <v>1.3517536784580001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1985</v>
       </c>
@@ -42417,7 +42544,7 @@
         <v>8.1111580284955805E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1888</v>
       </c>
@@ -42434,7 +42561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1058</v>
       </c>
@@ -42451,7 +42578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>690</v>
       </c>
@@ -42468,7 +42595,7 @@
         <v>4.228E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>920</v>
       </c>
@@ -42485,7 +42612,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>510</v>
       </c>
@@ -42502,7 +42629,7 @@
         <v>1.763333E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1861</v>
       </c>
@@ -42519,7 +42646,7 @@
         <v>1.03544280578125E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1973</v>
       </c>
@@ -42536,7 +42663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1544</v>
       </c>
@@ -42553,7 +42680,7 @@
         <v>1.8918139999999999E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1821</v>
       </c>
@@ -42570,7 +42697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>237</v>
       </c>
@@ -42587,7 +42714,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>715</v>
       </c>
@@ -42604,7 +42731,7 @@
         <v>1.0481546243841799E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1254</v>
       </c>
@@ -42621,7 +42748,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1817</v>
       </c>
@@ -42638,7 +42765,7 @@
         <v>4.39480198612452E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1932</v>
       </c>
@@ -42655,7 +42782,7 @@
         <v>2.7386497045001198E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>492</v>
       </c>
@@ -42672,7 +42799,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1959</v>
       </c>
@@ -42689,7 +42816,7 @@
         <v>1.35583471871706E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1904</v>
       </c>
@@ -42706,7 +42833,7 @@
         <v>1.5746926320666502E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1169</v>
       </c>
@@ -42723,7 +42850,7 @@
         <v>1.7179999999999999E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>567</v>
       </c>
@@ -42740,7 +42867,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1854</v>
       </c>
@@ -42757,7 +42884,7 @@
         <v>1.37773237178582E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2033</v>
       </c>
@@ -42774,7 +42901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>863</v>
       </c>
@@ -42791,7 +42918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1737</v>
       </c>
@@ -42808,7 +42935,7 @@
         <v>4.9831053147252596E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1912</v>
       </c>
@@ -42825,7 +42952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1924</v>
       </c>
@@ -42842,7 +42969,7 @@
         <v>2.6068236112393602E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2029</v>
       </c>
@@ -42859,7 +42986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1756</v>
       </c>
@@ -42876,7 +43003,7 @@
         <v>2.9942493068197602E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>39</v>
       </c>
@@ -42893,7 +43020,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1333</v>
       </c>
@@ -42910,7 +43037,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1773</v>
       </c>
@@ -42927,7 +43054,7 @@
         <v>1.9884534967696101E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1936</v>
       </c>
@@ -42944,7 +43071,7 @@
         <v>1.91120438977196E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1794</v>
       </c>
@@ -42961,7 +43088,7 @@
         <v>6.0338806381154595E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1963</v>
       </c>
@@ -42978,7 +43105,7 @@
         <v>6.2861939508272301E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>574</v>
       </c>
@@ -42995,7 +43122,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>581</v>
       </c>
@@ -43012,7 +43139,7 @@
         <v>6.0400000000000002E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1037</v>
       </c>
@@ -43029,7 +43156,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1765</v>
       </c>
@@ -43046,7 +43173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1360</v>
       </c>
@@ -43063,7 +43190,7 @@
         <v>4.6299999999999998E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1729</v>
       </c>
@@ -43080,7 +43207,7 @@
         <v>4.4082089999999997E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1900</v>
       </c>
@@ -43097,7 +43224,7 @@
         <v>7.3518572191599704E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>186</v>
       </c>
@@ -43114,7 +43241,7 @@
         <v>6.0749999999999997E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1967</v>
       </c>
@@ -43131,7 +43258,7 @@
         <v>1.3478219099316399E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>791</v>
       </c>
@@ -43148,7 +43275,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1832</v>
       </c>
@@ -43165,7 +43292,7 @@
         <v>1.30873280673071E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1947</v>
       </c>
@@ -43182,7 +43309,7 @@
         <v>2.1246735955777201E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1769</v>
       </c>
@@ -43199,7 +43326,7 @@
         <v>5.4074736155960701E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1801</v>
       </c>
@@ -43216,7 +43343,7 @@
         <v>1.24443840419473E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1678</v>
       </c>
@@ -43233,7 +43360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1744</v>
       </c>
@@ -43250,7 +43377,7 @@
         <v>3.5306344767396299E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1825</v>
       </c>
@@ -43267,7 +43394,7 @@
         <v>2.1590073361611498E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -43290,6 +43417,7 @@
       <sortCondition ref="A1:A129"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -43302,12 +43430,12 @@
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -43333,7 +43461,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -43350,7 +43478,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2043</v>
       </c>
@@ -43359,7 +43487,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -43376,7 +43504,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -43390,7 +43518,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -43410,7 +43538,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -43433,7 +43561,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -43456,7 +43584,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -43479,7 +43607,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2064</v>
       </c>
@@ -43502,7 +43630,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -43525,7 +43653,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2026</v>
       </c>
@@ -43548,7 +43676,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2027</v>
       </c>
@@ -43571,7 +43699,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2078</v>
       </c>
@@ -43580,7 +43708,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -43600,7 +43728,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2028</v>
       </c>
@@ -43623,7 +43751,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>574</v>
       </c>
@@ -43646,7 +43774,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>581</v>
       </c>
@@ -43666,7 +43794,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>606</v>
       </c>
@@ -43683,7 +43811,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -43706,7 +43834,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>690</v>
       </c>
@@ -43729,7 +43857,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>700</v>
       </c>
@@ -43746,7 +43874,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>737</v>
       </c>
@@ -43763,7 +43891,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>791</v>
       </c>
@@ -43786,7 +43914,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2029</v>
       </c>
@@ -43800,7 +43928,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>849</v>
       </c>
@@ -43817,7 +43945,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>863</v>
       </c>
@@ -43840,7 +43968,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>887</v>
       </c>
@@ -43857,7 +43985,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>894</v>
       </c>
@@ -43880,7 +44008,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2120</v>
       </c>
@@ -43889,7 +44017,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>920</v>
       </c>
@@ -43912,7 +44040,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2030</v>
       </c>
@@ -43929,7 +44057,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2031</v>
       </c>
@@ -43946,7 +44074,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2032</v>
       </c>
@@ -43963,7 +44091,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>983</v>
       </c>
@@ -43980,7 +44108,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -44003,7 +44131,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>492</v>
       </c>
@@ -44026,7 +44154,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1037</v>
       </c>
@@ -44049,7 +44177,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2033</v>
       </c>
@@ -44063,7 +44191,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1058</v>
       </c>
@@ -44080,7 +44208,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2154</v>
       </c>
@@ -44089,7 +44217,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1066</v>
       </c>
@@ -44106,7 +44234,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1159</v>
       </c>
@@ -44123,7 +44251,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1169</v>
       </c>
@@ -44146,7 +44274,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2080</v>
       </c>
@@ -44155,7 +44283,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1227</v>
       </c>
@@ -44172,7 +44300,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>663</v>
       </c>
@@ -44195,7 +44323,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1254</v>
       </c>
@@ -44218,7 +44346,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1286</v>
       </c>
@@ -44235,7 +44363,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1333</v>
       </c>
@@ -44255,7 +44383,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1360</v>
       </c>
@@ -44278,7 +44406,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1377</v>
       </c>
@@ -44295,7 +44423,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1480</v>
       </c>
@@ -44309,7 +44437,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2183</v>
       </c>
@@ -44324,7 +44452,7 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1499</v>
       </c>
@@ -44338,7 +44466,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2034</v>
       </c>
@@ -44356,7 +44484,7 @@
       </c>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1535</v>
       </c>
@@ -44373,7 +44501,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2120</v>
       </c>
@@ -44382,7 +44510,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2191</v>
       </c>
@@ -44391,7 +44519,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1544</v>
       </c>
@@ -44408,7 +44536,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1566</v>
       </c>
@@ -44425,7 +44553,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1585</v>
       </c>
@@ -44442,7 +44570,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1621</v>
       </c>
@@ -44459,7 +44587,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2204</v>
       </c>
@@ -44468,7 +44596,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2195</v>
       </c>
@@ -44477,7 +44605,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1628</v>
       </c>
@@ -44496,7 +44624,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
         <v>2210</v>
@@ -44508,7 +44636,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
         <v>2212</v>
@@ -44520,7 +44648,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
         <v>2214</v>
@@ -44532,7 +44660,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2035</v>
       </c>
@@ -44549,7 +44677,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1671</v>
       </c>
@@ -44566,7 +44694,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2220</v>
       </c>
@@ -44575,7 +44703,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>2115</v>
       </c>
@@ -44584,7 +44712,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1678</v>
       </c>
@@ -44601,7 +44729,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1709</v>
       </c>
@@ -44618,7 +44746,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1415</v>
       </c>
@@ -44632,7 +44760,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2230</v>
       </c>
@@ -44640,7 +44768,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1723</v>
       </c>
@@ -44663,7 +44791,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1729</v>
       </c>
@@ -44683,7 +44811,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1450</v>
       </c>
@@ -44691,7 +44819,7 @@
         <v>167.68</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1737</v>
       </c>
@@ -44705,7 +44833,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1744</v>
       </c>
@@ -44716,7 +44844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1748</v>
       </c>
@@ -44727,7 +44855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1752</v>
       </c>
@@ -44741,7 +44869,7 @@
         <v>9.6075956599999994</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1756</v>
       </c>
@@ -44755,7 +44883,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1760</v>
       </c>
@@ -44769,7 +44897,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1765</v>
       </c>
@@ -44780,7 +44908,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1769</v>
       </c>
@@ -44788,7 +44916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1773</v>
       </c>
@@ -44799,7 +44927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1777</v>
       </c>
@@ -44813,7 +44941,7 @@
         <v>9.0640106950000003</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>1671</v>
       </c>
@@ -44821,7 +44949,7 @@
         <v>2493.14</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1784</v>
       </c>
@@ -44832,7 +44960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>510</v>
       </c>
@@ -44843,7 +44971,7 @@
         <v>7.4821358099999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1790</v>
       </c>
@@ -44857,7 +44985,7 @@
         <v>7.1790302500000003</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1794</v>
       </c>
@@ -44868,7 +44996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1797</v>
       </c>
@@ -44879,7 +45007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1801</v>
       </c>
@@ -44890,7 +45018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1805</v>
       </c>
@@ -44901,7 +45029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1809</v>
       </c>
@@ -44909,7 +45037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1813</v>
       </c>
@@ -44923,7 +45051,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1817</v>
       </c>
@@ -44931,7 +45059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1821</v>
       </c>
@@ -44945,7 +45073,7 @@
         <v>6.1279949839999999</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1825</v>
       </c>
@@ -44953,7 +45081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1829</v>
       </c>
@@ -44964,7 +45092,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1832</v>
       </c>
@@ -44978,7 +45106,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1836</v>
       </c>
@@ -44986,7 +45114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1840</v>
       </c>
@@ -44997,7 +45125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1844</v>
       </c>
@@ -45011,7 +45139,7 @@
         <v>7.7593068860000001</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1848</v>
       </c>
@@ -45022,7 +45150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>33</v>
       </c>
@@ -45030,7 +45158,7 @@
         <v>8.4300706529999996</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1854</v>
       </c>
@@ -45041,7 +45169,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1857</v>
       </c>
@@ -45049,7 +45177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1861</v>
       </c>
@@ -45063,7 +45191,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1864</v>
       </c>
@@ -45074,7 +45202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1867</v>
       </c>
@@ -45085,7 +45213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1871</v>
       </c>
@@ -45099,7 +45227,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>48</v>
       </c>
@@ -45107,7 +45235,7 @@
         <v>10.69912246</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1877</v>
       </c>
@@ -45118,7 +45246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1880</v>
       </c>
@@ -45132,7 +45260,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1884</v>
       </c>
@@ -45152,7 +45280,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1888</v>
       </c>
@@ -45163,7 +45291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1891</v>
       </c>
@@ -45177,7 +45305,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>715</v>
       </c>
@@ -45191,7 +45319,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>1729</v>
       </c>
@@ -45199,7 +45327,7 @@
         <v>7.638779918</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1900</v>
       </c>
@@ -45213,7 +45341,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1904</v>
       </c>
@@ -45227,7 +45355,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1908</v>
       </c>
@@ -45241,7 +45369,7 @@
         <v>9.3452055919999992</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1912</v>
       </c>
@@ -45255,7 +45383,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1916</v>
       </c>
@@ -45266,7 +45394,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1920</v>
       </c>
@@ -45280,7 +45408,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1924</v>
       </c>
@@ -45291,7 +45419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1928</v>
       </c>
@@ -45302,7 +45430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1932</v>
       </c>
@@ -45313,7 +45441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1936</v>
       </c>
@@ -45327,7 +45455,7 @@
         <v>7.9775022590000004</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1939</v>
       </c>
@@ -45338,7 +45466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1943</v>
       </c>
@@ -45352,7 +45480,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1947</v>
       </c>
@@ -45366,7 +45494,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1951</v>
       </c>
@@ -45374,7 +45502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1955</v>
       </c>
@@ -45394,7 +45522,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1959</v>
       </c>
@@ -45402,7 +45530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1963</v>
       </c>
@@ -45413,7 +45541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1967</v>
       </c>
@@ -45424,7 +45552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1970</v>
       </c>
@@ -45432,7 +45560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1973</v>
       </c>
@@ -45443,7 +45571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1977</v>
       </c>
@@ -45457,7 +45585,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1981</v>
       </c>
@@ -45471,7 +45599,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1985</v>
       </c>
@@ -45485,7 +45613,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>186</v>
       </c>
@@ -45505,7 +45633,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1992</v>
       </c>
@@ -45519,7 +45647,7 @@
         <v>9.7809819999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1997</v>
       </c>
@@ -45531,6 +45659,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{D717D1C7-2404-45B1-93C4-65B3A2353D0E}"/>
     <hyperlink ref="F5" r:id="rId2" xr:uid="{50394836-AEC1-49D5-99B2-E60D80C6968A}"/>

--- a/mutation_rate_literature_updating3.xlsx
+++ b/mutation_rate_literature_updating3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yigua\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD260BAB-529A-4E6F-8999-721EB0CB2003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAEC8F8-1FD2-4FE0-87D5-B415D0D72770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9950" yWindow="3420" windowWidth="23870" windowHeight="16130" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
+    <workbookView xWindow="16380" yWindow="4160" windowWidth="18040" windowHeight="15370" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8845" uniqueCount="2302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8862" uniqueCount="2317">
   <si>
     <t>PID</t>
   </si>
@@ -6961,6 +6961,66 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S2211926424003060</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zebra finches</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taeniopygia guttata</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024003_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sexual</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>snp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.36e-9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.32e-9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.60e-9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illumina TruSeq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>49X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liang, X., Yang, S., Wang, D. et al. Characterization and distribution of de novo mutations in the zebra finch. Commun Biol 7, 1243 (2024). https://doi.org/10.1038/s42003-024-06945-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s42003-024-06945-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7368,12 +7428,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318201D5-CE15-42FE-AD6F-C948F9B6134A}">
-  <dimension ref="A1:AC505"/>
+  <dimension ref="A1:AC506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="V509" sqref="V509"/>
+      <selection pane="bottomLeft" activeCell="X495" sqref="X495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -40766,6 +40826,71 @@
       </c>
       <c r="AC505" s="1" t="s">
         <v>2301</v>
+      </c>
+    </row>
+    <row r="506" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>2024003</v>
+      </c>
+      <c r="B506">
+        <v>2024</v>
+      </c>
+      <c r="C506" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D506" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E506" s="7" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F506" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G506" t="s">
+        <v>2304</v>
+      </c>
+      <c r="H506" t="s">
+        <v>2305</v>
+      </c>
+      <c r="I506" t="s">
+        <v>2306</v>
+      </c>
+      <c r="J506" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K506" t="s">
+        <v>31</v>
+      </c>
+      <c r="L506" s="4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="M506" s="4" t="s">
+        <v>2309</v>
+      </c>
+      <c r="N506" s="4" t="s">
+        <v>2310</v>
+      </c>
+      <c r="R506" s="8">
+        <v>105</v>
+      </c>
+      <c r="T506" s="4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="U506">
+        <v>4</v>
+      </c>
+      <c r="W506" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="Y506" t="s">
+        <v>2313</v>
+      </c>
+      <c r="AA506" t="s">
+        <v>2314</v>
+      </c>
+      <c r="AC506" s="1" t="s">
+        <v>2315</v>
       </c>
     </row>
   </sheetData>
@@ -41199,6 +41324,7 @@
     <hyperlink ref="AC503" r:id="rId425" xr:uid="{B9B868B2-A9CF-415F-B2C8-A71B021703C3}"/>
     <hyperlink ref="AC504" r:id="rId426" xr:uid="{187E2094-C54D-4707-9DAC-C00BC73602BA}"/>
     <hyperlink ref="AC505" r:id="rId427" xr:uid="{AA3DE5F5-8CEA-4EDE-ACF1-28C535A726DD}"/>
+    <hyperlink ref="AC506" r:id="rId428" xr:uid="{2FD49CDB-3C46-4CF7-864E-4E156705A06E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mutation_rate_literature_updating3.xlsx
+++ b/mutation_rate_literature_updating3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yigua\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywang120\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAEC8F8-1FD2-4FE0-87D5-B415D0D72770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D57E35C-8A53-4350-99AF-E5A0E5FDD9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="4160" windowWidth="18040" windowHeight="15370" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
+    <workbookView xWindow="4880" yWindow="6070" windowWidth="25610" windowHeight="11310" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8862" uniqueCount="2317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8918" uniqueCount="2326">
   <si>
     <t>PID</t>
   </si>
@@ -7022,24 +7022,51 @@
   <si>
     <t>birds</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024004_01</t>
+  </si>
+  <si>
+    <t>7.86e-9</t>
+  </si>
+  <si>
+    <t>9.76e-9</t>
+  </si>
+  <si>
+    <t>8..15</t>
+  </si>
+  <si>
+    <t>PacBio Sequel II</t>
+  </si>
+  <si>
+    <t>https://genome.cshlp.org/content/early/2024/12/02/gr.279982.124.abstract</t>
+  </si>
+  <si>
+    <t>López-Cortegano, E., Chebib, J., Jonas, A., Vock, A., Künzel, S., Keightley, P. D., &amp; Tautz, D. (2024). The rate and spectrum of new mutations in mice inferred by long-read sequencing. Genome Research, gr-279982.</t>
+  </si>
+  <si>
+    <t>5.53e-9</t>
+  </si>
+  <si>
+    <t>4.22e-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7047,7 +7074,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7058,20 +7085,20 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7428,34 +7455,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318201D5-CE15-42FE-AD6F-C948F9B6134A}">
-  <dimension ref="A1:AC506"/>
+  <dimension ref="A1:AC510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="X495" sqref="X495"/>
+      <selection pane="bottomLeft" activeCell="M508" sqref="M508"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.4140625" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" customWidth="1"/>
-    <col min="17" max="17" width="3.75" customWidth="1"/>
-    <col min="19" max="19" width="12.75" customWidth="1"/>
-    <col min="22" max="22" width="7.1640625" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" customWidth="1"/>
+    <col min="16" max="16" width="4.81640625" customWidth="1"/>
+    <col min="17" max="17" width="3.7265625" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" customWidth="1"/>
+    <col min="22" max="22" width="7.1796875" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7544,7 +7571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>2004001</v>
       </c>
@@ -7611,7 +7638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>2004001</v>
       </c>
@@ -7676,7 +7703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>2004001</v>
       </c>
@@ -7741,7 +7768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>2004001</v>
       </c>
@@ -7806,7 +7833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>2007002</v>
       </c>
@@ -7878,7 +7905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>2007002</v>
       </c>
@@ -7946,7 +7973,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>2007002</v>
       </c>
@@ -8014,7 +8041,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>2007002</v>
       </c>
@@ -8082,7 +8109,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>2008001</v>
       </c>
@@ -8149,7 +8176,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>2008001</v>
       </c>
@@ -8212,7 +8239,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>2009001</v>
       </c>
@@ -8280,7 +8307,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>2009002</v>
       </c>
@@ -8355,7 +8382,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>2009004</v>
       </c>
@@ -8424,7 +8451,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>2009004</v>
       </c>
@@ -8493,7 +8520,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>2009004</v>
       </c>
@@ -8562,7 +8589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>2010001</v>
       </c>
@@ -8625,7 +8652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>2010002</v>
       </c>
@@ -8684,7 +8711,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>2010002</v>
       </c>
@@ -8743,7 +8770,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>2010002</v>
       </c>
@@ -8802,7 +8829,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>2010002</v>
       </c>
@@ -8861,7 +8888,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>2010003</v>
       </c>
@@ -8933,7 +8960,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>2010004</v>
       </c>
@@ -8996,7 +9023,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>2010005</v>
       </c>
@@ -9060,7 +9087,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>2010005</v>
       </c>
@@ -9124,7 +9151,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29">
       <c r="A26">
         <v>2011001</v>
       </c>
@@ -9193,7 +9220,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29">
       <c r="A27">
         <v>2012001</v>
       </c>
@@ -9265,7 +9292,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29">
       <c r="A28">
         <v>2012001</v>
       </c>
@@ -9337,7 +9364,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29">
       <c r="A29">
         <v>2012002</v>
       </c>
@@ -9405,7 +9432,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29">
       <c r="A30">
         <v>2012002</v>
       </c>
@@ -9471,7 +9498,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29">
       <c r="A31">
         <v>2012002</v>
       </c>
@@ -9541,7 +9568,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29">
       <c r="A32">
         <v>2012002</v>
       </c>
@@ -9611,7 +9638,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29">
       <c r="A33">
         <v>2012003</v>
       </c>
@@ -9672,7 +9699,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29">
       <c r="A34">
         <v>2012004</v>
       </c>
@@ -9738,7 +9765,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29">
       <c r="A35">
         <v>2012005</v>
       </c>
@@ -9810,7 +9837,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29">
       <c r="A36">
         <v>2012006</v>
       </c>
@@ -9882,7 +9909,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29">
       <c r="A37">
         <v>2012007</v>
       </c>
@@ -9949,7 +9976,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29">
       <c r="A38">
         <v>2012008</v>
       </c>
@@ -10014,7 +10041,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29">
       <c r="A39">
         <v>2012009</v>
       </c>
@@ -10078,7 +10105,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29">
       <c r="A40">
         <v>2012010</v>
       </c>
@@ -10145,7 +10172,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29">
       <c r="A41">
         <v>2012010</v>
       </c>
@@ -10212,7 +10239,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29">
       <c r="A42">
         <v>2012010</v>
       </c>
@@ -10275,7 +10302,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29">
       <c r="A43">
         <v>2012010</v>
       </c>
@@ -10338,7 +10365,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29">
       <c r="A44">
         <v>2012011</v>
       </c>
@@ -10403,7 +10430,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29">
       <c r="A45">
         <v>2012011</v>
       </c>
@@ -10464,7 +10491,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29">
       <c r="A46">
         <v>2012012</v>
       </c>
@@ -10529,7 +10556,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29">
       <c r="A47">
         <v>2012012</v>
       </c>
@@ -10596,7 +10623,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29">
       <c r="A48">
         <v>2012012</v>
       </c>
@@ -10659,7 +10686,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29">
       <c r="A49">
         <v>2012012</v>
       </c>
@@ -10722,7 +10749,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29">
       <c r="A50">
         <v>2012013</v>
       </c>
@@ -10787,7 +10814,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29">
       <c r="A51">
         <v>2012013</v>
       </c>
@@ -10852,7 +10879,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29">
       <c r="A52">
         <v>2012013</v>
       </c>
@@ -10917,7 +10944,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29">
       <c r="A53">
         <v>2012013</v>
       </c>
@@ -10982,7 +11009,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29">
       <c r="A54">
         <v>2012014</v>
       </c>
@@ -11051,7 +11078,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29">
       <c r="A55">
         <v>2012014</v>
       </c>
@@ -11120,7 +11147,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29">
       <c r="A56">
         <v>2012015</v>
       </c>
@@ -11185,7 +11212,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29">
       <c r="A57">
         <v>2012016</v>
       </c>
@@ -11257,7 +11284,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29">
       <c r="A58">
         <v>2012016</v>
       </c>
@@ -11329,7 +11356,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29">
       <c r="A59">
         <v>2012016</v>
       </c>
@@ -11401,7 +11428,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29">
       <c r="A60">
         <v>2012016</v>
       </c>
@@ -11473,7 +11500,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29">
       <c r="A61">
         <v>2012016</v>
       </c>
@@ -11545,7 +11572,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29">
       <c r="A62">
         <v>2012016</v>
       </c>
@@ -11617,7 +11644,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29">
       <c r="A63">
         <v>2012017</v>
       </c>
@@ -11688,7 +11715,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29">
       <c r="A64">
         <v>2012017</v>
       </c>
@@ -11761,7 +11788,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29">
       <c r="A65">
         <v>2012017</v>
       </c>
@@ -11832,7 +11859,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29">
       <c r="A66">
         <v>2012017</v>
       </c>
@@ -11905,7 +11932,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29">
       <c r="A67">
         <v>2012017</v>
       </c>
@@ -11976,7 +12003,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29">
       <c r="A68">
         <v>2012017</v>
       </c>
@@ -12049,7 +12076,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29">
       <c r="A69">
         <v>2012019</v>
       </c>
@@ -12119,7 +12146,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29">
       <c r="A70">
         <v>2012019</v>
       </c>
@@ -12189,7 +12216,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29">
       <c r="A71">
         <v>2013001</v>
       </c>
@@ -12257,7 +12284,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29">
       <c r="A72">
         <v>2013001</v>
       </c>
@@ -12321,7 +12348,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29">
       <c r="A73">
         <v>2013001</v>
       </c>
@@ -12389,7 +12416,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29">
       <c r="A74">
         <v>2013001</v>
       </c>
@@ -12457,7 +12484,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29">
       <c r="A75">
         <v>2013001</v>
       </c>
@@ -12525,7 +12552,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29">
       <c r="A76">
         <v>2013001</v>
       </c>
@@ -12589,7 +12616,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29">
       <c r="A77">
         <v>2013001</v>
       </c>
@@ -12657,7 +12684,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29">
       <c r="A78">
         <v>2013001</v>
       </c>
@@ -12725,7 +12752,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29">
       <c r="A79">
         <v>2013002</v>
       </c>
@@ -12789,7 +12816,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29">
       <c r="A80">
         <v>2013002</v>
       </c>
@@ -12853,7 +12880,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29">
       <c r="A81">
         <v>2013003</v>
       </c>
@@ -12921,7 +12948,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29">
       <c r="A82">
         <v>2013003</v>
       </c>
@@ -12985,7 +13012,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29">
       <c r="A83">
         <v>2013003</v>
       </c>
@@ -13049,7 +13076,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29">
       <c r="A84">
         <v>2013004</v>
       </c>
@@ -13121,7 +13148,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29">
       <c r="A85">
         <v>2013005</v>
       </c>
@@ -13189,7 +13216,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29">
       <c r="A86">
         <v>2014001</v>
       </c>
@@ -13250,7 +13277,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29">
       <c r="A87">
         <v>2014001</v>
       </c>
@@ -13311,7 +13338,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29">
       <c r="A88">
         <v>2014003</v>
       </c>
@@ -13380,7 +13407,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29">
       <c r="A89">
         <v>2014004</v>
       </c>
@@ -13449,7 +13476,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29">
       <c r="A90">
         <v>2014004</v>
       </c>
@@ -13518,7 +13545,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29">
       <c r="A91">
         <v>2014004</v>
       </c>
@@ -13587,7 +13614,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29">
       <c r="A92">
         <v>2014004</v>
       </c>
@@ -13652,7 +13679,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29">
       <c r="A93">
         <v>2014005</v>
       </c>
@@ -13719,7 +13746,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29">
       <c r="A94">
         <v>2014005</v>
       </c>
@@ -13786,7 +13813,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29">
       <c r="A95">
         <v>2014005</v>
       </c>
@@ -13853,7 +13880,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29">
       <c r="A96">
         <v>2014005</v>
       </c>
@@ -13920,7 +13947,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29">
       <c r="A97">
         <v>2014006</v>
       </c>
@@ -13987,7 +14014,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29">
       <c r="A98">
         <v>2014006</v>
       </c>
@@ -14052,7 +14079,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29">
       <c r="A99">
         <v>2014006</v>
       </c>
@@ -14117,7 +14144,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29">
       <c r="A100">
         <v>2014006</v>
       </c>
@@ -14182,7 +14209,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29">
       <c r="A101">
         <v>2014007</v>
       </c>
@@ -14249,7 +14276,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29">
       <c r="A102">
         <v>2014008</v>
       </c>
@@ -14312,7 +14339,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29">
       <c r="A103">
         <v>2014009</v>
       </c>
@@ -14375,7 +14402,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29">
       <c r="A104">
         <v>2014010</v>
       </c>
@@ -14442,7 +14469,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29">
       <c r="A105">
         <v>2015001</v>
       </c>
@@ -14514,7 +14541,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29">
       <c r="A106">
         <v>2015002</v>
       </c>
@@ -14577,7 +14604,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29">
       <c r="A107">
         <v>2015002</v>
       </c>
@@ -14638,7 +14665,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29">
       <c r="A108">
         <v>2015002</v>
       </c>
@@ -14699,7 +14726,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29">
       <c r="A109">
         <v>2015002</v>
       </c>
@@ -14760,7 +14787,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29">
       <c r="A110">
         <v>2015004</v>
       </c>
@@ -14823,7 +14850,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29">
       <c r="A111">
         <v>2015004</v>
       </c>
@@ -14886,7 +14913,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29">
       <c r="A112">
         <v>2015004</v>
       </c>
@@ -14949,7 +14976,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29">
       <c r="A113">
         <v>2015004</v>
       </c>
@@ -15012,7 +15039,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29">
       <c r="A114">
         <v>2015004</v>
       </c>
@@ -15075,7 +15102,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29">
       <c r="A115">
         <v>2015004</v>
       </c>
@@ -15138,7 +15165,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29">
       <c r="A116">
         <v>2015004</v>
       </c>
@@ -15201,7 +15228,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29">
       <c r="A117">
         <v>2015004</v>
       </c>
@@ -15264,7 +15291,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29">
       <c r="A118">
         <v>2015005</v>
       </c>
@@ -15334,7 +15361,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29">
       <c r="A119">
         <v>2015006</v>
       </c>
@@ -15406,7 +15433,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29">
       <c r="A120">
         <v>2015006</v>
       </c>
@@ -15480,7 +15507,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29">
       <c r="A121">
         <v>2015006</v>
       </c>
@@ -15550,7 +15577,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29">
       <c r="A122">
         <v>2015006</v>
       </c>
@@ -15620,7 +15647,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29">
       <c r="A123">
         <v>2015007</v>
       </c>
@@ -15688,7 +15715,7 @@
       </c>
       <c r="AC123" s="1"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29">
       <c r="A124">
         <v>2015007</v>
       </c>
@@ -15756,7 +15783,7 @@
       </c>
       <c r="AC124" s="1"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29">
       <c r="A125">
         <v>2015007</v>
       </c>
@@ -15824,7 +15851,7 @@
       </c>
       <c r="AC125" s="1"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29">
       <c r="A126">
         <v>2015010</v>
       </c>
@@ -15889,7 +15916,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29">
       <c r="A127">
         <v>2015010</v>
       </c>
@@ -15956,7 +15983,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29">
       <c r="A128">
         <v>2015010</v>
       </c>
@@ -16023,7 +16050,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29">
       <c r="A129">
         <v>2015010</v>
       </c>
@@ -16090,7 +16117,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29">
       <c r="A130">
         <v>2015011</v>
       </c>
@@ -16158,7 +16185,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29">
       <c r="A131">
         <v>2015011</v>
       </c>
@@ -16224,7 +16251,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29">
       <c r="A132">
         <v>2015013</v>
       </c>
@@ -16293,7 +16320,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29">
       <c r="A133">
         <v>2015013</v>
       </c>
@@ -16362,7 +16389,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29">
       <c r="A134">
         <v>2015013</v>
       </c>
@@ -16427,7 +16454,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29">
       <c r="A135">
         <v>2015013</v>
       </c>
@@ -16492,7 +16519,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29">
       <c r="A136">
         <v>2015014</v>
       </c>
@@ -16555,7 +16582,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29">
       <c r="A137">
         <v>2015014</v>
       </c>
@@ -16618,7 +16645,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29">
       <c r="A138">
         <v>2015014</v>
       </c>
@@ -16681,7 +16708,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29">
       <c r="A139">
         <v>2015014</v>
       </c>
@@ -16744,7 +16771,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29">
       <c r="A140">
         <v>2015014</v>
       </c>
@@ -16807,7 +16834,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29">
       <c r="A141">
         <v>2015014</v>
       </c>
@@ -16870,7 +16897,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29">
       <c r="A142">
         <v>2015014</v>
       </c>
@@ -16933,7 +16960,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29">
       <c r="A143">
         <v>2015014</v>
       </c>
@@ -16996,7 +17023,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29">
       <c r="A144">
         <v>2015014</v>
       </c>
@@ -17059,7 +17086,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29">
       <c r="A145">
         <v>2015014</v>
       </c>
@@ -17122,7 +17149,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29">
       <c r="A146">
         <v>2015014</v>
       </c>
@@ -17185,7 +17212,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29">
       <c r="A147">
         <v>2015014</v>
       </c>
@@ -17248,7 +17275,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29">
       <c r="A148">
         <v>2015014</v>
       </c>
@@ -17311,7 +17338,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29">
       <c r="A149">
         <v>2015014</v>
       </c>
@@ -17374,7 +17401,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29">
       <c r="A150">
         <v>2015014</v>
       </c>
@@ -17437,7 +17464,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29">
       <c r="A151">
         <v>2015014</v>
       </c>
@@ -17500,7 +17527,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29">
       <c r="A152">
         <v>2015014</v>
       </c>
@@ -17565,7 +17592,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29">
       <c r="A153">
         <v>2015014</v>
       </c>
@@ -17630,7 +17657,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29">
       <c r="A154">
         <v>2015014</v>
       </c>
@@ -17691,7 +17718,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29">
       <c r="A155">
         <v>2015014</v>
       </c>
@@ -17752,7 +17779,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29">
       <c r="A156">
         <v>2015015</v>
       </c>
@@ -17819,7 +17846,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29">
       <c r="A157">
         <v>2015015</v>
       </c>
@@ -17882,7 +17909,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29">
       <c r="A158">
         <v>2016001</v>
       </c>
@@ -17947,7 +17974,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29">
       <c r="A159">
         <v>2016001</v>
       </c>
@@ -18012,7 +18039,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29">
       <c r="A160">
         <v>2016001</v>
       </c>
@@ -18077,7 +18104,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29">
       <c r="A161">
         <v>2016001</v>
       </c>
@@ -18142,7 +18169,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29">
       <c r="A162">
         <v>2016002</v>
       </c>
@@ -18211,7 +18238,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29">
       <c r="A163">
         <v>2016002</v>
       </c>
@@ -18280,7 +18307,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29">
       <c r="A164">
         <v>2016002</v>
       </c>
@@ -18349,7 +18376,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29">
       <c r="A165">
         <v>2016002</v>
       </c>
@@ -18414,7 +18441,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29">
       <c r="A166">
         <v>2016003</v>
       </c>
@@ -18484,7 +18511,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29">
       <c r="A167">
         <v>2016003</v>
       </c>
@@ -18552,7 +18579,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29">
       <c r="A168">
         <v>2016003</v>
       </c>
@@ -18622,7 +18649,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29">
       <c r="A169">
         <v>2016004</v>
       </c>
@@ -18690,7 +18717,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29">
       <c r="A170">
         <v>2016004</v>
       </c>
@@ -18754,7 +18781,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29">
       <c r="A171">
         <v>2016004</v>
       </c>
@@ -18818,7 +18845,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29">
       <c r="A172">
         <v>2016004</v>
       </c>
@@ -18882,7 +18909,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29">
       <c r="A173">
         <v>2016005</v>
       </c>
@@ -18950,7 +18977,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29">
       <c r="A174">
         <v>2016005</v>
       </c>
@@ -19018,7 +19045,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29">
       <c r="A175">
         <v>2016005</v>
       </c>
@@ -19086,7 +19113,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29">
       <c r="A176">
         <v>2016005</v>
       </c>
@@ -19154,7 +19181,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29">
       <c r="A177">
         <v>2016006</v>
       </c>
@@ -19224,7 +19251,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29">
       <c r="A178">
         <v>2016006</v>
       </c>
@@ -19294,7 +19321,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29">
       <c r="A179">
         <v>2016006</v>
       </c>
@@ -19364,7 +19391,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29">
       <c r="A180">
         <v>2016006</v>
       </c>
@@ -19434,7 +19461,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29">
       <c r="A181">
         <v>2016007</v>
       </c>
@@ -19503,7 +19530,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29">
       <c r="A182">
         <v>2016008</v>
       </c>
@@ -19572,7 +19599,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29">
       <c r="A183">
         <v>2016008</v>
       </c>
@@ -19637,7 +19664,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29">
       <c r="A184">
         <v>2016008</v>
       </c>
@@ -19706,7 +19733,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29">
       <c r="A185">
         <v>2016008</v>
       </c>
@@ -19775,7 +19802,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29">
       <c r="A186">
         <v>2016009</v>
       </c>
@@ -19847,7 +19874,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29">
       <c r="A187">
         <v>2016009</v>
       </c>
@@ -19919,7 +19946,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29">
       <c r="A188">
         <v>2016009</v>
       </c>
@@ -19989,7 +20016,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29">
       <c r="A189">
         <v>2016010</v>
       </c>
@@ -20061,7 +20088,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29">
       <c r="A190">
         <v>2016011</v>
       </c>
@@ -20132,7 +20159,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29">
       <c r="A191">
         <v>2016011</v>
       </c>
@@ -20198,7 +20225,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29">
       <c r="A192">
         <v>2016011</v>
       </c>
@@ -20264,7 +20291,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29">
       <c r="A193">
         <v>2016011</v>
       </c>
@@ -20330,7 +20357,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29">
       <c r="A194">
         <v>2016012</v>
       </c>
@@ -20402,7 +20429,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29">
       <c r="A195">
         <v>2016013</v>
       </c>
@@ -20467,7 +20494,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29">
       <c r="A196">
         <v>2016014</v>
       </c>
@@ -20534,7 +20561,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29">
       <c r="A197">
         <v>2016014</v>
       </c>
@@ -20597,7 +20624,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29">
       <c r="A198">
         <v>2016014</v>
       </c>
@@ -20660,7 +20687,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:29">
       <c r="A199">
         <v>2016014</v>
       </c>
@@ -20723,7 +20750,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29">
       <c r="A200">
         <v>2017001</v>
       </c>
@@ -20793,7 +20820,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29">
       <c r="A201">
         <v>2017003</v>
       </c>
@@ -20853,7 +20880,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:29">
       <c r="A202">
         <v>2017003</v>
       </c>
@@ -20916,7 +20943,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:29">
       <c r="A203">
         <v>2017003</v>
       </c>
@@ -20979,7 +21006,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29">
       <c r="A204">
         <v>2017003</v>
       </c>
@@ -21042,7 +21069,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:29">
       <c r="A205">
         <v>2017004</v>
       </c>
@@ -21111,7 +21138,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29">
       <c r="A206">
         <v>2017005</v>
       </c>
@@ -21183,7 +21210,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29">
       <c r="A207">
         <v>2017006</v>
       </c>
@@ -21251,7 +21278,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29">
       <c r="A208">
         <v>2017006</v>
       </c>
@@ -21319,7 +21346,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29">
       <c r="A209">
         <v>2017006</v>
       </c>
@@ -21387,7 +21414,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29">
       <c r="A210">
         <v>2017006</v>
       </c>
@@ -21455,7 +21482,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29">
       <c r="A211">
         <v>2017007</v>
       </c>
@@ -21524,7 +21551,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29">
       <c r="A212">
         <v>2017007</v>
       </c>
@@ -21589,7 +21616,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29">
       <c r="A213">
         <v>2017007</v>
       </c>
@@ -21654,7 +21681,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29">
       <c r="A214">
         <v>2017007</v>
       </c>
@@ -21719,7 +21746,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29">
       <c r="A215">
         <v>2017007</v>
       </c>
@@ -21788,7 +21815,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29">
       <c r="A216">
         <v>2017007</v>
       </c>
@@ -21853,7 +21880,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29">
       <c r="A217">
         <v>2017007</v>
       </c>
@@ -21918,7 +21945,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29">
       <c r="A218">
         <v>2017007</v>
       </c>
@@ -21983,7 +22010,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29">
       <c r="A219">
         <v>2017007</v>
       </c>
@@ -22048,7 +22075,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29">
       <c r="A220">
         <v>2017007</v>
       </c>
@@ -22113,7 +22140,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29">
       <c r="A221">
         <v>2017007</v>
       </c>
@@ -22178,7 +22205,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29">
       <c r="A222">
         <v>2017007</v>
       </c>
@@ -22243,7 +22270,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29">
       <c r="A223">
         <v>2017007</v>
       </c>
@@ -22308,7 +22335,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29">
       <c r="A224">
         <v>2017007</v>
       </c>
@@ -22373,7 +22400,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29">
       <c r="A225">
         <v>2017007</v>
       </c>
@@ -22438,7 +22465,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29">
       <c r="A226">
         <v>2017008</v>
       </c>
@@ -22505,7 +22532,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29">
       <c r="A227">
         <v>2017008</v>
       </c>
@@ -22572,7 +22599,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29">
       <c r="A228">
         <v>2017008</v>
       </c>
@@ -22639,7 +22666,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29">
       <c r="A229">
         <v>2017008</v>
       </c>
@@ -22702,7 +22729,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29">
       <c r="A230">
         <v>2017009</v>
       </c>
@@ -22774,7 +22801,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29">
       <c r="A231">
         <v>2017010</v>
       </c>
@@ -22848,7 +22875,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29">
       <c r="A232">
         <v>2017010</v>
       </c>
@@ -22918,7 +22945,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29">
       <c r="A233">
         <v>2017010</v>
       </c>
@@ -22992,7 +23019,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29">
       <c r="A234">
         <v>2017010</v>
       </c>
@@ -23066,7 +23093,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29">
       <c r="A235">
         <v>2017011</v>
       </c>
@@ -23132,7 +23159,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29">
       <c r="A236">
         <v>2017012</v>
       </c>
@@ -23204,7 +23231,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29">
       <c r="A237">
         <v>2017013</v>
       </c>
@@ -23267,7 +23294,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29">
       <c r="A238">
         <v>2017014</v>
       </c>
@@ -23330,7 +23357,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29">
       <c r="A239">
         <v>2017014</v>
       </c>
@@ -23391,7 +23418,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29">
       <c r="A240">
         <v>2017015</v>
       </c>
@@ -23463,7 +23490,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:29">
       <c r="A241">
         <v>2017015</v>
       </c>
@@ -23535,7 +23562,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29">
       <c r="A242">
         <v>2017015</v>
       </c>
@@ -23603,7 +23630,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:29">
       <c r="A243">
         <v>2017015</v>
       </c>
@@ -23671,7 +23698,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:29">
       <c r="A244">
         <v>2017016</v>
       </c>
@@ -23738,7 +23765,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:29">
       <c r="A245">
         <v>2017017</v>
       </c>
@@ -23799,7 +23826,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:29">
       <c r="A246">
         <v>2017017</v>
       </c>
@@ -23860,7 +23887,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:29">
       <c r="A247">
         <v>2018002</v>
       </c>
@@ -23930,7 +23957,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:29">
       <c r="A248">
         <v>2018003</v>
       </c>
@@ -24000,7 +24027,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:29">
       <c r="A249">
         <v>2018003</v>
       </c>
@@ -24066,7 +24093,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:29">
       <c r="A250">
         <v>2018003</v>
       </c>
@@ -24132,7 +24159,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:29">
       <c r="A251">
         <v>2018003</v>
       </c>
@@ -24198,7 +24225,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:29">
       <c r="A252">
         <v>2018004</v>
       </c>
@@ -24268,7 +24295,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:29">
       <c r="A253">
         <v>2018005</v>
       </c>
@@ -24334,7 +24361,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:29">
       <c r="A254">
         <v>2018007</v>
       </c>
@@ -24401,7 +24428,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:29">
       <c r="A255">
         <v>2018007</v>
       </c>
@@ -24468,7 +24495,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:29">
       <c r="A256">
         <v>2018007</v>
       </c>
@@ -24533,7 +24560,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29">
       <c r="A257">
         <v>2018008</v>
       </c>
@@ -24602,7 +24629,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29">
       <c r="A258">
         <v>2018008</v>
       </c>
@@ -24671,7 +24698,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29">
       <c r="A259">
         <v>2018008</v>
       </c>
@@ -24740,7 +24767,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29">
       <c r="A260">
         <v>2018008</v>
       </c>
@@ -24809,7 +24836,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29">
       <c r="A261">
         <v>2018009</v>
       </c>
@@ -24881,7 +24908,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29">
       <c r="A262">
         <v>2019001</v>
       </c>
@@ -24957,7 +24984,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29">
       <c r="A263">
         <v>2019001</v>
       </c>
@@ -25027,7 +25054,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29">
       <c r="A264">
         <v>2019001</v>
       </c>
@@ -25097,7 +25124,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29">
       <c r="A265">
         <v>2019001</v>
       </c>
@@ -25167,7 +25194,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29">
       <c r="A266">
         <v>2019002</v>
       </c>
@@ -25236,7 +25263,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29">
       <c r="A267">
         <v>2019002</v>
       </c>
@@ -25305,7 +25332,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29">
       <c r="A268">
         <v>2019002</v>
       </c>
@@ -25374,7 +25401,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29">
       <c r="A269">
         <v>2019002</v>
       </c>
@@ -25443,7 +25470,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29">
       <c r="A270">
         <v>2019002</v>
       </c>
@@ -25512,7 +25539,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29">
       <c r="A271">
         <v>2019002</v>
       </c>
@@ -25581,7 +25608,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:29">
       <c r="A272">
         <v>2019002</v>
       </c>
@@ -25650,7 +25677,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:29">
       <c r="A273">
         <v>2019002</v>
       </c>
@@ -25719,7 +25746,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:29">
       <c r="A274">
         <v>2019002</v>
       </c>
@@ -25788,7 +25815,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:29">
       <c r="A275">
         <v>2019002</v>
       </c>
@@ -25857,7 +25884,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:29">
       <c r="A276">
         <v>2019003</v>
       </c>
@@ -25920,7 +25947,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:29">
       <c r="A277">
         <v>2019003</v>
       </c>
@@ -25985,7 +26012,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:29">
       <c r="A278">
         <v>2019004</v>
       </c>
@@ -26055,7 +26082,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:29">
       <c r="A279">
         <v>2019004</v>
       </c>
@@ -26121,7 +26148,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:29">
       <c r="A280">
         <v>2019004</v>
       </c>
@@ -26187,7 +26214,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:29">
       <c r="A281">
         <v>2019004</v>
       </c>
@@ -26253,7 +26280,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:29">
       <c r="A282">
         <v>2019004</v>
       </c>
@@ -26323,7 +26350,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:29">
       <c r="A283">
         <v>2019004</v>
       </c>
@@ -26389,7 +26416,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:29">
       <c r="A284">
         <v>2019004</v>
       </c>
@@ -26455,7 +26482,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:29">
       <c r="A285">
         <v>2019004</v>
       </c>
@@ -26521,7 +26548,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:29">
       <c r="A286">
         <v>2019004</v>
       </c>
@@ -26591,7 +26618,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:29">
       <c r="A287">
         <v>2019004</v>
       </c>
@@ -26655,7 +26682,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:29">
       <c r="A288">
         <v>2019004</v>
       </c>
@@ -26721,7 +26748,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:29">
       <c r="A289">
         <v>2019004</v>
       </c>
@@ -26787,7 +26814,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:29">
       <c r="A290">
         <v>2019004</v>
       </c>
@@ -26857,7 +26884,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:29">
       <c r="A291">
         <v>2019004</v>
       </c>
@@ -26923,7 +26950,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:29">
       <c r="A292">
         <v>2019004</v>
       </c>
@@ -26989,7 +27016,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:29">
       <c r="A293">
         <v>2019004</v>
       </c>
@@ -27059,7 +27086,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:29">
       <c r="A294">
         <v>2019004</v>
       </c>
@@ -27125,7 +27152,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:29">
       <c r="A295">
         <v>2019004</v>
       </c>
@@ -27191,7 +27218,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:29">
       <c r="A296">
         <v>2019004</v>
       </c>
@@ -27257,7 +27284,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:29">
       <c r="A297">
         <v>2019005</v>
       </c>
@@ -27327,7 +27354,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:29">
       <c r="A298">
         <v>2019005</v>
       </c>
@@ -27397,7 +27424,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:29">
       <c r="A299">
         <v>2019006</v>
       </c>
@@ -27461,7 +27488,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:29">
       <c r="A300">
         <v>2019007</v>
       </c>
@@ -27531,7 +27558,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:29">
       <c r="A301">
         <v>2019008</v>
       </c>
@@ -27598,7 +27625,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:29">
       <c r="A302">
         <v>2019008</v>
       </c>
@@ -27663,7 +27690,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:29">
       <c r="A303">
         <v>2019008</v>
       </c>
@@ -27730,7 +27757,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:29">
       <c r="A304">
         <v>2019008</v>
       </c>
@@ -27797,7 +27824,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:29">
       <c r="A305">
         <v>2019009</v>
       </c>
@@ -27864,7 +27891,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:29">
       <c r="A306">
         <v>2019009</v>
       </c>
@@ -27925,7 +27952,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:29">
       <c r="A307">
         <v>2019009</v>
       </c>
@@ -27988,7 +28015,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:29">
       <c r="A308">
         <v>2019009</v>
       </c>
@@ -28051,7 +28078,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:29">
       <c r="A309">
         <v>2019010</v>
       </c>
@@ -28118,7 +28145,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:29">
       <c r="A310">
         <v>2019010</v>
       </c>
@@ -28186,7 +28213,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:29">
       <c r="A311">
         <v>2019011</v>
       </c>
@@ -28250,7 +28277,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:29">
       <c r="A312">
         <v>2019011</v>
       </c>
@@ -28312,7 +28339,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:29">
       <c r="A313">
         <v>2019011</v>
       </c>
@@ -28374,7 +28401,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:29">
       <c r="A314">
         <v>2019011</v>
       </c>
@@ -28436,7 +28463,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:29">
       <c r="A315">
         <v>2019012</v>
       </c>
@@ -28501,7 +28528,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:29">
       <c r="A316">
         <v>2019013</v>
       </c>
@@ -28571,7 +28598,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:29">
       <c r="A317">
         <v>2019013</v>
       </c>
@@ -28639,7 +28666,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:29">
       <c r="A318">
         <v>2019013</v>
       </c>
@@ -28709,7 +28736,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:29">
       <c r="A319">
         <v>2019013</v>
       </c>
@@ -28779,7 +28806,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:29">
       <c r="A320">
         <v>2019013</v>
       </c>
@@ -28851,7 +28878,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:29">
       <c r="A321">
         <v>2019013</v>
       </c>
@@ -28921,7 +28948,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:29">
       <c r="A322">
         <v>2019013</v>
       </c>
@@ -28993,7 +29020,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:29">
       <c r="A323">
         <v>2019013</v>
       </c>
@@ -29065,7 +29092,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:29">
       <c r="A324">
         <v>2019014</v>
       </c>
@@ -29133,7 +29160,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:29">
       <c r="A325">
         <v>2019014</v>
       </c>
@@ -29201,7 +29228,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:29">
       <c r="A326">
         <v>2019014</v>
       </c>
@@ -29269,7 +29296,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:29">
       <c r="A327">
         <v>2019014</v>
       </c>
@@ -29337,7 +29364,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:29">
       <c r="A328">
         <v>2019014</v>
       </c>
@@ -29405,7 +29432,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:29">
       <c r="A329">
         <v>2019014</v>
       </c>
@@ -29473,7 +29500,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:29">
       <c r="A330">
         <v>2019015</v>
       </c>
@@ -29539,7 +29566,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:29">
       <c r="A331">
         <v>2019016</v>
       </c>
@@ -29606,7 +29633,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:29">
       <c r="A332">
         <v>2019016</v>
       </c>
@@ -29671,7 +29698,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:29">
       <c r="A333">
         <v>2019016</v>
       </c>
@@ -29736,7 +29763,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:29">
       <c r="A334">
         <v>2019016</v>
       </c>
@@ -29801,7 +29828,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:29">
       <c r="A335">
         <v>2019017</v>
       </c>
@@ -29870,7 +29897,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:29">
       <c r="A336">
         <v>2019018</v>
       </c>
@@ -29938,7 +29965,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:29">
       <c r="A337">
         <v>2019018</v>
       </c>
@@ -30008,7 +30035,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:29">
       <c r="A338">
         <v>2020001</v>
       </c>
@@ -30080,7 +30107,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:29">
       <c r="A339">
         <v>2020001</v>
       </c>
@@ -30152,7 +30179,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:29">
       <c r="A340">
         <v>2020001</v>
       </c>
@@ -30224,7 +30251,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:29">
       <c r="A341">
         <v>2020002</v>
       </c>
@@ -30293,7 +30320,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:29">
       <c r="A342">
         <v>2020002</v>
       </c>
@@ -30358,7 +30385,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:29">
       <c r="A343">
         <v>2020002</v>
       </c>
@@ -30423,7 +30450,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:29">
       <c r="A344">
         <v>2020002</v>
       </c>
@@ -30488,7 +30515,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:29">
       <c r="A345">
         <v>2020003</v>
       </c>
@@ -30560,7 +30587,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:29">
       <c r="A346">
         <v>2020004</v>
       </c>
@@ -30624,7 +30651,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:29">
       <c r="A347">
         <v>2020004</v>
       </c>
@@ -30688,7 +30715,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:29">
       <c r="A348">
         <v>2020004</v>
       </c>
@@ -30752,7 +30779,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:29">
       <c r="A349">
         <v>2020004</v>
       </c>
@@ -30816,7 +30843,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:29">
       <c r="A350">
         <v>2020004</v>
       </c>
@@ -30880,7 +30907,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:29">
       <c r="A351">
         <v>2020004</v>
       </c>
@@ -30944,7 +30971,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:29">
       <c r="A352">
         <v>2020005</v>
       </c>
@@ -31011,7 +31038,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:29">
       <c r="A353">
         <v>2020006</v>
       </c>
@@ -31083,7 +31110,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:29">
       <c r="A354">
         <v>2020006</v>
       </c>
@@ -31151,7 +31178,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:29">
       <c r="A355">
         <v>2020006</v>
       </c>
@@ -31219,7 +31246,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:29">
       <c r="A356">
         <v>2020006</v>
       </c>
@@ -31287,7 +31314,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:29">
       <c r="A357">
         <v>2020006</v>
       </c>
@@ -31359,7 +31386,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:29">
       <c r="A358">
         <v>2020006</v>
       </c>
@@ -31427,7 +31454,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:29">
       <c r="A359">
         <v>2020006</v>
       </c>
@@ -31495,7 +31522,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:29">
       <c r="A360">
         <v>2020006</v>
       </c>
@@ -31563,7 +31590,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:29">
       <c r="A361">
         <v>2020007</v>
       </c>
@@ -31632,7 +31659,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:29">
       <c r="A362">
         <v>2020007</v>
       </c>
@@ -31699,7 +31726,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:29">
       <c r="A363">
         <v>2020007</v>
       </c>
@@ -31766,7 +31793,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:29">
       <c r="A364">
         <v>2020007</v>
       </c>
@@ -31833,7 +31860,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:29">
       <c r="A365">
         <v>2020007</v>
       </c>
@@ -31902,7 +31929,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:29">
       <c r="A366">
         <v>2020007</v>
       </c>
@@ -31969,7 +31996,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:29">
       <c r="A367">
         <v>2020007</v>
       </c>
@@ -32036,7 +32063,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:29">
       <c r="A368">
         <v>2020007</v>
       </c>
@@ -32103,7 +32130,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:29">
       <c r="A369">
         <v>2020007</v>
       </c>
@@ -32172,7 +32199,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:29">
       <c r="A370">
         <v>2020007</v>
       </c>
@@ -32239,7 +32266,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:29">
       <c r="A371">
         <v>2020007</v>
       </c>
@@ -32306,7 +32333,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:29">
       <c r="A372">
         <v>2020007</v>
       </c>
@@ -32373,7 +32400,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:29">
       <c r="A373">
         <v>2020007</v>
       </c>
@@ -32442,7 +32469,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:29">
       <c r="A374">
         <v>2020007</v>
       </c>
@@ -32509,7 +32536,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:29">
       <c r="A375">
         <v>2020007</v>
       </c>
@@ -32576,7 +32603,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:29">
       <c r="A376">
         <v>2020007</v>
       </c>
@@ -32643,7 +32670,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:29">
       <c r="A377">
         <v>2020008</v>
       </c>
@@ -32709,7 +32736,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:29">
       <c r="A378">
         <v>2020008</v>
       </c>
@@ -32775,7 +32802,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:29">
       <c r="A379">
         <v>2020009</v>
       </c>
@@ -32842,7 +32869,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:29">
       <c r="A380">
         <v>2020009</v>
       </c>
@@ -32909,7 +32936,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:29">
       <c r="A381">
         <v>2020010</v>
       </c>
@@ -32981,7 +33008,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:29">
       <c r="A382">
         <v>2020011</v>
       </c>
@@ -33050,7 +33077,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:29">
       <c r="A383">
         <v>2020011</v>
       </c>
@@ -33122,7 +33149,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:29">
       <c r="A384">
         <v>2021001</v>
       </c>
@@ -33194,7 +33221,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:29">
       <c r="A385">
         <v>2021002</v>
       </c>
@@ -33264,7 +33291,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:29">
       <c r="A386">
         <v>2021003</v>
       </c>
@@ -33326,7 +33353,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:29">
       <c r="A387">
         <v>2021005</v>
       </c>
@@ -33392,7 +33419,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:29">
       <c r="A388">
         <v>2021006</v>
       </c>
@@ -33459,7 +33486,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:29">
       <c r="A389">
         <v>2021007</v>
       </c>
@@ -33529,7 +33556,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:29">
       <c r="A390">
         <v>2021007</v>
       </c>
@@ -33599,7 +33626,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:29">
       <c r="A391">
         <v>2021007</v>
       </c>
@@ -33669,7 +33696,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:29">
       <c r="A392">
         <v>2021007</v>
       </c>
@@ -33739,7 +33766,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:29">
       <c r="A393">
         <v>2021008</v>
       </c>
@@ -33804,7 +33831,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:29">
       <c r="A394">
         <v>2021008</v>
       </c>
@@ -33867,7 +33894,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:29">
       <c r="A395">
         <v>2021008</v>
       </c>
@@ -33930,7 +33957,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:29">
       <c r="A396">
         <v>2021008</v>
       </c>
@@ -33993,7 +34020,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:29">
       <c r="A397">
         <v>2021009</v>
       </c>
@@ -34062,7 +34089,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:29">
       <c r="A398">
         <v>2021009</v>
       </c>
@@ -34127,7 +34154,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:29">
       <c r="A399">
         <v>2021009</v>
       </c>
@@ -34192,7 +34219,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:29">
       <c r="A400">
         <v>2021009</v>
       </c>
@@ -34257,7 +34284,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:29">
       <c r="A401">
         <v>2021010</v>
       </c>
@@ -34321,7 +34348,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:29">
       <c r="A402">
         <v>2021011</v>
       </c>
@@ -34384,7 +34411,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:29">
       <c r="A403">
         <v>2021011</v>
       </c>
@@ -34447,7 +34474,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:29">
       <c r="A404">
         <v>2022001</v>
       </c>
@@ -34511,7 +34538,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:29">
       <c r="A405">
         <v>2022001</v>
       </c>
@@ -34575,7 +34602,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:29">
       <c r="A406">
         <v>2022002</v>
       </c>
@@ -34645,7 +34672,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:29">
       <c r="A407">
         <v>2022002</v>
       </c>
@@ -34711,7 +34738,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:29">
       <c r="A408">
         <v>2022002</v>
       </c>
@@ -34777,7 +34804,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="409" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:29">
       <c r="A409">
         <v>2022002</v>
       </c>
@@ -34843,7 +34870,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:29">
       <c r="A410">
         <v>2022003</v>
       </c>
@@ -34913,7 +34940,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:29">
       <c r="A411">
         <v>2022004</v>
       </c>
@@ -34981,7 +35008,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="412" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:29">
       <c r="A412">
         <v>2022004</v>
       </c>
@@ -35049,7 +35076,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="413" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:29">
       <c r="A413">
         <v>2022005</v>
       </c>
@@ -35116,7 +35143,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="414" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:29">
       <c r="A414">
         <v>2022006</v>
       </c>
@@ -35186,7 +35213,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="415" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:29">
       <c r="A415">
         <v>2022007</v>
       </c>
@@ -35260,7 +35287,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:29">
       <c r="A416">
         <v>2022007</v>
       </c>
@@ -35334,7 +35361,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="417" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:29">
       <c r="A417">
         <v>2022007</v>
       </c>
@@ -35408,7 +35435,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="418" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:29">
       <c r="A418">
         <v>2022007</v>
       </c>
@@ -35482,7 +35509,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:29">
       <c r="A419">
         <v>2022007</v>
       </c>
@@ -35556,7 +35583,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="420" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:29">
       <c r="A420">
         <v>2022007</v>
       </c>
@@ -35626,7 +35653,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="421" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:29">
       <c r="A421">
         <v>2022007</v>
       </c>
@@ -35700,7 +35727,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="422" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:29">
       <c r="A422">
         <v>2022007</v>
       </c>
@@ -35774,7 +35801,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="423" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:29">
       <c r="A423">
         <v>2022007</v>
       </c>
@@ -35848,7 +35875,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:29">
       <c r="A424">
         <v>2022007</v>
       </c>
@@ -35918,7 +35945,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:29">
       <c r="A425">
         <v>2022007</v>
       </c>
@@ -35992,7 +36019,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:29">
       <c r="A426">
         <v>2022007</v>
       </c>
@@ -36066,7 +36093,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:29">
       <c r="A427">
         <v>2022008</v>
       </c>
@@ -36127,7 +36154,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:29">
       <c r="A428">
         <v>2022009</v>
       </c>
@@ -36186,7 +36213,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:29">
       <c r="A429">
         <v>2023001</v>
       </c>
@@ -36246,7 +36273,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:29">
       <c r="A430">
         <v>2023001</v>
       </c>
@@ -36306,7 +36333,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:29">
       <c r="A431">
         <v>2023001</v>
       </c>
@@ -36366,7 +36393,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:29">
       <c r="A432">
         <v>2023001</v>
       </c>
@@ -36426,7 +36453,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:29">
       <c r="A433">
         <v>2023001</v>
       </c>
@@ -36486,7 +36513,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:29">
       <c r="A434">
         <v>2023001</v>
       </c>
@@ -36546,7 +36573,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:29">
       <c r="A435">
         <v>2023001</v>
       </c>
@@ -36606,7 +36633,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:29">
       <c r="A436">
         <v>2023001</v>
       </c>
@@ -36666,7 +36693,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:29">
       <c r="A437">
         <v>2023001</v>
       </c>
@@ -36726,7 +36753,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:29">
       <c r="A438">
         <v>2023001</v>
       </c>
@@ -36786,7 +36813,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:29">
       <c r="A439">
         <v>2023001</v>
       </c>
@@ -36846,7 +36873,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:29">
       <c r="A440">
         <v>2023001</v>
       </c>
@@ -36906,7 +36933,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:29">
       <c r="A441">
         <v>2023001</v>
       </c>
@@ -36966,7 +36993,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:29">
       <c r="A442">
         <v>2023001</v>
       </c>
@@ -37026,7 +37053,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:29">
       <c r="A443">
         <v>2023001</v>
       </c>
@@ -37086,7 +37113,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:29">
       <c r="A444">
         <v>2023001</v>
       </c>
@@ -37146,7 +37173,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:29">
       <c r="A445">
         <v>2023001</v>
       </c>
@@ -37206,7 +37233,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:29">
       <c r="A446">
         <v>2023001</v>
       </c>
@@ -37266,7 +37293,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:29">
       <c r="A447">
         <v>2023001</v>
       </c>
@@ -37326,7 +37353,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:29">
       <c r="A448">
         <v>2023001</v>
       </c>
@@ -37386,7 +37413,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:29">
       <c r="A449">
         <v>2023001</v>
       </c>
@@ -37446,7 +37473,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:29">
       <c r="A450">
         <v>2023001</v>
       </c>
@@ -37506,7 +37533,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:29">
       <c r="A451">
         <v>2023001</v>
       </c>
@@ -37566,7 +37593,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:29">
       <c r="A452">
         <v>2023001</v>
       </c>
@@ -37626,7 +37653,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:29">
       <c r="A453">
         <v>2023001</v>
       </c>
@@ -37686,7 +37713,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:29">
       <c r="A454">
         <v>2023001</v>
       </c>
@@ -37746,7 +37773,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:29">
       <c r="A455">
         <v>2023001</v>
       </c>
@@ -37806,7 +37833,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:29">
       <c r="A456">
         <v>2023001</v>
       </c>
@@ -37866,7 +37893,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:29">
       <c r="A457">
         <v>2023001</v>
       </c>
@@ -37926,7 +37953,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:29">
       <c r="A458">
         <v>2023001</v>
       </c>
@@ -37986,7 +38013,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:29">
       <c r="A459">
         <v>2023001</v>
       </c>
@@ -38046,7 +38073,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:29">
       <c r="A460">
         <v>2023001</v>
       </c>
@@ -38106,7 +38133,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:29">
       <c r="A461">
         <v>2023001</v>
       </c>
@@ -38166,7 +38193,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:29">
       <c r="A462">
         <v>2023001</v>
       </c>
@@ -38226,7 +38253,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:29">
       <c r="A463">
         <v>2023001</v>
       </c>
@@ -38286,7 +38313,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:29">
       <c r="A464">
         <v>2023001</v>
       </c>
@@ -38346,7 +38373,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:29">
       <c r="A465">
         <v>2023001</v>
       </c>
@@ -38406,7 +38433,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:29">
       <c r="A466">
         <v>2023001</v>
       </c>
@@ -38466,7 +38493,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:29">
       <c r="A467">
         <v>2023001</v>
       </c>
@@ -38526,7 +38553,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:29">
       <c r="A468">
         <v>2023001</v>
       </c>
@@ -38586,7 +38613,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:29">
       <c r="A469">
         <v>2023001</v>
       </c>
@@ -38646,7 +38673,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="470" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:29">
       <c r="A470">
         <v>2023001</v>
       </c>
@@ -38706,7 +38733,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:29">
       <c r="A471">
         <v>2023001</v>
       </c>
@@ -38766,7 +38793,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:29">
       <c r="A472">
         <v>2023001</v>
       </c>
@@ -38826,7 +38853,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:29">
       <c r="A473">
         <v>2023001</v>
       </c>
@@ -38886,7 +38913,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:29">
       <c r="A474">
         <v>2023001</v>
       </c>
@@ -38946,7 +38973,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:29">
       <c r="A475">
         <v>2023001</v>
       </c>
@@ -39006,7 +39033,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:29">
       <c r="A476">
         <v>2023001</v>
       </c>
@@ -39066,7 +39093,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:29">
       <c r="A477">
         <v>2023001</v>
       </c>
@@ -39126,7 +39153,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:29">
       <c r="A478">
         <v>2023001</v>
       </c>
@@ -39186,7 +39213,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:29">
       <c r="A479">
         <v>2023001</v>
       </c>
@@ -39246,7 +39273,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:29">
       <c r="A480">
         <v>2023001</v>
       </c>
@@ -39306,7 +39333,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:29">
       <c r="A481">
         <v>2023001</v>
       </c>
@@ -39366,7 +39393,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:29">
       <c r="A482">
         <v>2023001</v>
       </c>
@@ -39426,7 +39453,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:29">
       <c r="A483">
         <v>2023001</v>
       </c>
@@ -39486,7 +39513,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:29">
       <c r="A484">
         <v>2023001</v>
       </c>
@@ -39546,7 +39573,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:29">
       <c r="A485">
         <v>2023001</v>
       </c>
@@ -39606,7 +39633,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:29">
       <c r="A486">
         <v>2023001</v>
       </c>
@@ -39666,7 +39693,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:29">
       <c r="A487">
         <v>2023001</v>
       </c>
@@ -39726,7 +39753,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:29">
       <c r="A488">
         <v>2023001</v>
       </c>
@@ -39786,7 +39813,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:29">
       <c r="A489">
         <v>2023001</v>
       </c>
@@ -39846,7 +39873,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:29">
       <c r="A490">
         <v>2023001</v>
       </c>
@@ -39906,7 +39933,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:29">
       <c r="A491">
         <v>2023001</v>
       </c>
@@ -39966,7 +39993,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:29">
       <c r="A492">
         <v>2023001</v>
       </c>
@@ -40026,7 +40053,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:29">
       <c r="A493">
         <v>2023001</v>
       </c>
@@ -40086,7 +40113,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:29">
       <c r="A494">
         <v>2023001</v>
       </c>
@@ -40146,7 +40173,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:29">
       <c r="A495">
         <v>2023001</v>
       </c>
@@ -40206,7 +40233,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:29">
       <c r="A496">
         <v>2023001</v>
       </c>
@@ -40266,7 +40293,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:29">
       <c r="A497">
         <v>2023002</v>
       </c>
@@ -40322,7 +40349,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:29">
       <c r="A498">
         <v>2023003</v>
       </c>
@@ -40387,7 +40414,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:29">
       <c r="A499">
         <v>2023003</v>
       </c>
@@ -40452,7 +40479,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="500" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:29">
       <c r="A500">
         <v>2023004</v>
       </c>
@@ -40511,7 +40538,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:29">
       <c r="A501">
         <v>2023005</v>
       </c>
@@ -40573,7 +40600,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:29">
       <c r="A502">
         <v>2023006</v>
       </c>
@@ -40638,7 +40665,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:29">
       <c r="A503">
         <v>2023007</v>
       </c>
@@ -40706,7 +40733,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="504" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:29">
       <c r="A504">
         <v>2024001</v>
       </c>
@@ -40760,7 +40787,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="505" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:29">
       <c r="A505">
         <v>2024002</v>
       </c>
@@ -40828,7 +40855,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:29">
       <c r="A506">
         <v>2024003</v>
       </c>
@@ -40891,6 +40918,230 @@
       </c>
       <c r="AC506" s="1" t="s">
         <v>2315</v>
+      </c>
+    </row>
+    <row r="507" spans="1:29">
+      <c r="A507">
+        <v>2024004</v>
+      </c>
+      <c r="B507">
+        <v>2024</v>
+      </c>
+      <c r="C507" t="s">
+        <v>46</v>
+      </c>
+      <c r="D507" t="s">
+        <v>46</v>
+      </c>
+      <c r="E507" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F507" t="s">
+        <v>48</v>
+      </c>
+      <c r="H507" t="s">
+        <v>2317</v>
+      </c>
+      <c r="I507" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J507" t="s">
+        <v>30</v>
+      </c>
+      <c r="K507" t="s">
+        <v>31</v>
+      </c>
+      <c r="L507" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="R507" s="8">
+        <v>2981</v>
+      </c>
+      <c r="T507" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U507">
+        <v>12</v>
+      </c>
+      <c r="V507" t="s">
+        <v>2320</v>
+      </c>
+      <c r="W507" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="AA507" t="s">
+        <v>2323</v>
+      </c>
+      <c r="AC507" s="1" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="508" spans="1:29">
+      <c r="A508">
+        <v>2024004</v>
+      </c>
+      <c r="B508">
+        <v>2024</v>
+      </c>
+      <c r="C508" t="s">
+        <v>46</v>
+      </c>
+      <c r="D508" t="s">
+        <v>46</v>
+      </c>
+      <c r="E508" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F508" t="s">
+        <v>48</v>
+      </c>
+      <c r="H508" t="s">
+        <v>2317</v>
+      </c>
+      <c r="I508" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J508" t="s">
+        <v>59</v>
+      </c>
+      <c r="K508" t="s">
+        <v>31</v>
+      </c>
+      <c r="L508" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="R508" s="8">
+        <v>3997</v>
+      </c>
+      <c r="T508" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U508">
+        <v>12</v>
+      </c>
+      <c r="V508" t="s">
+        <v>2320</v>
+      </c>
+      <c r="W508" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="AA508" t="s">
+        <v>2323</v>
+      </c>
+      <c r="AC508" s="1" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="509" spans="1:29">
+      <c r="A509">
+        <v>2024004</v>
+      </c>
+      <c r="B509">
+        <v>2024</v>
+      </c>
+      <c r="C509" t="s">
+        <v>46</v>
+      </c>
+      <c r="D509" t="s">
+        <v>46</v>
+      </c>
+      <c r="E509" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F509" t="s">
+        <v>48</v>
+      </c>
+      <c r="H509" t="s">
+        <v>2317</v>
+      </c>
+      <c r="I509" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J509" t="s">
+        <v>61</v>
+      </c>
+      <c r="K509" t="s">
+        <v>31</v>
+      </c>
+      <c r="L509" s="4" t="s">
+        <v>2324</v>
+      </c>
+      <c r="R509" s="8">
+        <v>2266</v>
+      </c>
+      <c r="T509" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U509">
+        <v>12</v>
+      </c>
+      <c r="V509" t="s">
+        <v>2320</v>
+      </c>
+      <c r="W509" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="AA509" t="s">
+        <v>2323</v>
+      </c>
+      <c r="AC509" s="1" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="510" spans="1:29">
+      <c r="A510">
+        <v>2024004</v>
+      </c>
+      <c r="B510">
+        <v>2024</v>
+      </c>
+      <c r="C510" t="s">
+        <v>46</v>
+      </c>
+      <c r="D510" t="s">
+        <v>46</v>
+      </c>
+      <c r="E510" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F510" t="s">
+        <v>48</v>
+      </c>
+      <c r="H510" t="s">
+        <v>2317</v>
+      </c>
+      <c r="I510" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J510" t="s">
+        <v>60</v>
+      </c>
+      <c r="K510" t="s">
+        <v>31</v>
+      </c>
+      <c r="L510" s="4" t="s">
+        <v>2325</v>
+      </c>
+      <c r="R510" s="8">
+        <v>1731</v>
+      </c>
+      <c r="T510" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U510">
+        <v>12</v>
+      </c>
+      <c r="V510" t="s">
+        <v>2320</v>
+      </c>
+      <c r="W510" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="AA510" t="s">
+        <v>2323</v>
+      </c>
+      <c r="AC510" s="1" t="s">
+        <v>2322</v>
       </c>
     </row>
   </sheetData>
@@ -41325,6 +41576,10 @@
     <hyperlink ref="AC504" r:id="rId426" xr:uid="{187E2094-C54D-4707-9DAC-C00BC73602BA}"/>
     <hyperlink ref="AC505" r:id="rId427" xr:uid="{AA3DE5F5-8CEA-4EDE-ACF1-28C535A726DD}"/>
     <hyperlink ref="AC506" r:id="rId428" xr:uid="{2FD49CDB-3C46-4CF7-864E-4E156705A06E}"/>
+    <hyperlink ref="AC507" r:id="rId429" xr:uid="{44FB1906-823D-4B98-9052-2BE2F0036A66}"/>
+    <hyperlink ref="AC508" r:id="rId430" xr:uid="{B342DF92-87E4-4AA1-A24D-F74CFAC50A3D}"/>
+    <hyperlink ref="AC509" r:id="rId431" xr:uid="{2796B3A9-3F3F-41A9-9C15-0A5784543185}"/>
+    <hyperlink ref="AC510" r:id="rId432" xr:uid="{E9854539-678D-4DFC-B47B-DD11548DDAC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41338,13 +41593,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -41361,7 +41616,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1415</v>
       </c>
@@ -41378,7 +41633,7 @@
         <v>8.8124999999999992E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1916</v>
       </c>
@@ -41395,7 +41650,7 @@
         <v>1.31196818727487E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -41412,7 +41667,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1880</v>
       </c>
@@ -41429,7 +41684,7 @@
         <v>3.1523190636401099E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1628</v>
       </c>
@@ -41446,7 +41701,7 @@
         <v>2.9474151000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1066</v>
       </c>
@@ -41463,7 +41718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>700</v>
       </c>
@@ -41480,7 +41735,7 @@
         <v>7.3524660000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1813</v>
       </c>
@@ -41497,7 +41752,7 @@
         <v>3.8173971548017302E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1864</v>
       </c>
@@ -41514,7 +41769,7 @@
         <v>9.5861526786502498E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -41531,7 +41786,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1943</v>
       </c>
@@ -41548,7 +41803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>1760</v>
       </c>
@@ -41565,7 +41820,7 @@
         <v>3.2154393732242198E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>951</v>
       </c>
@@ -41582,7 +41837,7 @@
         <v>1.6660000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>1992</v>
       </c>
@@ -41599,7 +41854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>887</v>
       </c>
@@ -41616,7 +41871,7 @@
         <v>1.21295E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>1286</v>
       </c>
@@ -41633,7 +41888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>1891</v>
       </c>
@@ -41650,7 +41905,7 @@
         <v>1.1394158804578199E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>2026</v>
       </c>
@@ -41667,7 +41922,7 @@
         <v>7.4609999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -41684,7 +41939,7 @@
         <v>2.9072680000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>1621</v>
       </c>
@@ -41701,7 +41956,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>663</v>
       </c>
@@ -41718,7 +41973,7 @@
         <v>1.49131E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>1797</v>
       </c>
@@ -41735,7 +41990,7 @@
         <v>1.7179000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>1844</v>
       </c>
@@ -41752,7 +42007,7 @@
         <v>3.3769084824164502E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>1748</v>
       </c>
@@ -41769,7 +42024,7 @@
         <v>9.4342500953643604E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>1928</v>
       </c>
@@ -41786,7 +42041,7 @@
         <v>1.01260118766569E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>1920</v>
       </c>
@@ -41803,7 +42058,7 @@
         <v>2.6042666738900601E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>1951</v>
       </c>
@@ -41820,7 +42075,7 @@
         <v>4.2086301875087504E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>1939</v>
       </c>
@@ -41837,7 +42092,7 @@
         <v>3.1769727510742498E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>2032</v>
       </c>
@@ -41854,7 +42109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -41871,7 +42126,7 @@
         <v>3.1960000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>983</v>
       </c>
@@ -41888,7 +42143,7 @@
         <v>2.33E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>1977</v>
       </c>
@@ -41905,7 +42160,7 @@
         <v>6.6912157328433497E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>894</v>
       </c>
@@ -41922,7 +42177,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>1970</v>
       </c>
@@ -41939,7 +42194,7 @@
         <v>2.1248297738901902E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>1908</v>
       </c>
@@ -41956,7 +42211,7 @@
         <v>8.7699160795129908E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>1752</v>
       </c>
@@ -41973,7 +42228,7 @@
         <v>5.2214814552629602E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -41990,7 +42245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>1955</v>
       </c>
@@ -42007,7 +42262,7 @@
         <v>6.4017839999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>1777</v>
       </c>
@@ -42024,7 +42279,7 @@
         <v>7.7960334004117801E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>2035</v>
       </c>
@@ -42041,7 +42296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>1377</v>
       </c>
@@ -42058,7 +42313,7 @@
         <v>1.3180000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>737</v>
       </c>
@@ -42075,7 +42330,7 @@
         <v>2.2030000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -42092,7 +42347,7 @@
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -42109,7 +42364,7 @@
         <v>1.4459008000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>1585</v>
       </c>
@@ -42126,7 +42381,7 @@
         <v>1.1968384E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>1709</v>
       </c>
@@ -42143,7 +42398,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>1723</v>
       </c>
@@ -42160,7 +42415,7 @@
         <v>3.2299999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>1450</v>
       </c>
@@ -42177,7 +42432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>1857</v>
       </c>
@@ -42194,7 +42449,7 @@
         <v>4.2323875850490498E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>1671</v>
       </c>
@@ -42211,7 +42466,7 @@
         <v>3.74381816015271E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>849</v>
       </c>
@@ -42228,7 +42483,7 @@
         <v>3.8004979999999998E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>1871</v>
       </c>
@@ -42245,7 +42500,7 @@
         <v>1.18970488374806E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>1784</v>
       </c>
@@ -42262,7 +42517,7 @@
         <v>3.2073805679047199E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>1840</v>
       </c>
@@ -42279,7 +42534,7 @@
         <v>2.4492953113405599E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>1159</v>
       </c>
@@ -42296,7 +42551,7 @@
         <v>1.1915000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>1981</v>
       </c>
@@ -42313,7 +42568,7 @@
         <v>2.13836578885606E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>1499</v>
       </c>
@@ -42330,7 +42585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>1480</v>
       </c>
@@ -42347,7 +42602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>1490</v>
       </c>
@@ -42364,7 +42619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>606</v>
       </c>
@@ -42381,7 +42636,7 @@
         <v>1.9237055999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>1848</v>
       </c>
@@ -42398,7 +42653,7 @@
         <v>2.8790285281246899E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -42415,7 +42670,7 @@
         <v>1.0828960000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>1836</v>
       </c>
@@ -42432,7 +42687,7 @@
         <v>2.9886513608581001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>1790</v>
       </c>
@@ -42449,7 +42704,7 @@
         <v>9.0327129521486603E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>1809</v>
       </c>
@@ -42466,7 +42721,7 @@
         <v>1.86066017058012E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>1829</v>
       </c>
@@ -42483,7 +42738,7 @@
         <v>2.9961525060907702E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>2034</v>
       </c>
@@ -42500,7 +42755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>1535</v>
       </c>
@@ -42517,7 +42772,7 @@
         <v>2.8735319999999998E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>1805</v>
       </c>
@@ -42534,7 +42789,7 @@
         <v>3.08855360632642E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>1227</v>
       </c>
@@ -42551,7 +42806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>1566</v>
       </c>
@@ -42568,7 +42823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>2030</v>
       </c>
@@ -42585,7 +42840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>1884</v>
       </c>
@@ -42602,7 +42857,7 @@
         <v>1.64E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>1877</v>
       </c>
@@ -42619,7 +42874,7 @@
         <v>2.1273180949723199E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -42636,7 +42891,7 @@
         <v>4.1555560000000004E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>1867</v>
       </c>
@@ -42653,7 +42908,7 @@
         <v>1.3517536784580001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>1985</v>
       </c>
@@ -42670,7 +42925,7 @@
         <v>8.1111580284955805E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>1888</v>
       </c>
@@ -42687,7 +42942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>1058</v>
       </c>
@@ -42704,7 +42959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>690</v>
       </c>
@@ -42721,7 +42976,7 @@
         <v>4.228E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>920</v>
       </c>
@@ -42738,7 +42993,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>510</v>
       </c>
@@ -42755,7 +43010,7 @@
         <v>1.763333E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>1861</v>
       </c>
@@ -42772,7 +43027,7 @@
         <v>1.03544280578125E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>1973</v>
       </c>
@@ -42789,7 +43044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>1544</v>
       </c>
@@ -42806,7 +43061,7 @@
         <v>1.8918139999999999E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>1821</v>
       </c>
@@ -42823,7 +43078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>237</v>
       </c>
@@ -42840,7 +43095,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>715</v>
       </c>
@@ -42857,7 +43112,7 @@
         <v>1.0481546243841799E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>1254</v>
       </c>
@@ -42874,7 +43129,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>1817</v>
       </c>
@@ -42891,7 +43146,7 @@
         <v>4.39480198612452E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>1932</v>
       </c>
@@ -42908,7 +43163,7 @@
         <v>2.7386497045001198E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>492</v>
       </c>
@@ -42925,7 +43180,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>1959</v>
       </c>
@@ -42942,7 +43197,7 @@
         <v>1.35583471871706E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>1904</v>
       </c>
@@ -42959,7 +43214,7 @@
         <v>1.5746926320666502E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>1169</v>
       </c>
@@ -42976,7 +43231,7 @@
         <v>1.7179999999999999E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>567</v>
       </c>
@@ -42993,7 +43248,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>1854</v>
       </c>
@@ -43010,7 +43265,7 @@
         <v>1.37773237178582E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>2033</v>
       </c>
@@ -43027,7 +43282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>863</v>
       </c>
@@ -43044,7 +43299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>1737</v>
       </c>
@@ -43061,7 +43316,7 @@
         <v>4.9831053147252596E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>1912</v>
       </c>
@@ -43078,7 +43333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>1924</v>
       </c>
@@ -43095,7 +43350,7 @@
         <v>2.6068236112393602E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>2029</v>
       </c>
@@ -43112,7 +43367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>1756</v>
       </c>
@@ -43129,7 +43384,7 @@
         <v>2.9942493068197602E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>39</v>
       </c>
@@ -43146,7 +43401,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>1333</v>
       </c>
@@ -43163,7 +43418,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>1773</v>
       </c>
@@ -43180,7 +43435,7 @@
         <v>1.9884534967696101E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>1936</v>
       </c>
@@ -43197,7 +43452,7 @@
         <v>1.91120438977196E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>1794</v>
       </c>
@@ -43214,7 +43469,7 @@
         <v>6.0338806381154595E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>1963</v>
       </c>
@@ -43231,7 +43486,7 @@
         <v>6.2861939508272301E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>574</v>
       </c>
@@ -43248,7 +43503,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>581</v>
       </c>
@@ -43265,7 +43520,7 @@
         <v>6.0400000000000002E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>1037</v>
       </c>
@@ -43282,7 +43537,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>1765</v>
       </c>
@@ -43299,7 +43554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>1360</v>
       </c>
@@ -43316,7 +43571,7 @@
         <v>4.6299999999999998E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>1729</v>
       </c>
@@ -43333,7 +43588,7 @@
         <v>4.4082089999999997E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>1900</v>
       </c>
@@ -43350,7 +43605,7 @@
         <v>7.3518572191599704E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>186</v>
       </c>
@@ -43367,7 +43622,7 @@
         <v>6.0749999999999997E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>1967</v>
       </c>
@@ -43384,7 +43639,7 @@
         <v>1.3478219099316399E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>791</v>
       </c>
@@ -43401,7 +43656,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>1832</v>
       </c>
@@ -43418,7 +43673,7 @@
         <v>1.30873280673071E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>1947</v>
       </c>
@@ -43435,7 +43690,7 @@
         <v>2.1246735955777201E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>1769</v>
       </c>
@@ -43452,7 +43707,7 @@
         <v>5.4074736155960701E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>1801</v>
       </c>
@@ -43469,7 +43724,7 @@
         <v>1.24443840419473E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>1678</v>
       </c>
@@ -43486,7 +43741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>1744</v>
       </c>
@@ -43503,7 +43758,7 @@
         <v>3.5306344767396299E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>1825</v>
       </c>
@@ -43520,7 +43775,7 @@
         <v>2.1590073361611498E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -43556,12 +43811,12 @@
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -43587,7 +43842,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -43604,7 +43859,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>2043</v>
       </c>
@@ -43613,7 +43868,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -43630,7 +43885,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -43644,7 +43899,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -43664,7 +43919,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -43687,7 +43942,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -43710,7 +43965,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -43733,7 +43988,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>2064</v>
       </c>
@@ -43756,7 +44011,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -43779,7 +44034,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>2026</v>
       </c>
@@ -43802,7 +44057,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>2027</v>
       </c>
@@ -43825,7 +44080,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
         <v>2078</v>
       </c>
@@ -43834,7 +44089,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -43854,7 +44109,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>2028</v>
       </c>
@@ -43877,7 +44132,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>574</v>
       </c>
@@ -43900,7 +44155,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>581</v>
       </c>
@@ -43920,7 +44175,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>606</v>
       </c>
@@ -43937,7 +44192,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -43960,7 +44215,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>690</v>
       </c>
@@ -43983,7 +44238,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>700</v>
       </c>
@@ -44000,7 +44255,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>737</v>
       </c>
@@ -44017,7 +44272,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>791</v>
       </c>
@@ -44040,7 +44295,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>2029</v>
       </c>
@@ -44054,7 +44309,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>849</v>
       </c>
@@ -44071,7 +44326,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>863</v>
       </c>
@@ -44094,7 +44349,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>887</v>
       </c>
@@ -44111,7 +44366,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>894</v>
       </c>
@@ -44134,7 +44389,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="C30" t="s">
         <v>2120</v>
       </c>
@@ -44143,7 +44398,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>920</v>
       </c>
@@ -44166,7 +44421,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>2030</v>
       </c>
@@ -44183,7 +44438,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>2031</v>
       </c>
@@ -44200,7 +44455,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>2032</v>
       </c>
@@ -44217,7 +44472,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>983</v>
       </c>
@@ -44234,7 +44489,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -44257,7 +44512,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>492</v>
       </c>
@@ -44280,7 +44535,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>1037</v>
       </c>
@@ -44303,7 +44558,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>2033</v>
       </c>
@@ -44317,7 +44572,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>1058</v>
       </c>
@@ -44334,7 +44589,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="C41" t="s">
         <v>2154</v>
       </c>
@@ -44343,7 +44598,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>1066</v>
       </c>
@@ -44360,7 +44615,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>1159</v>
       </c>
@@ -44377,7 +44632,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>1169</v>
       </c>
@@ -44400,7 +44655,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="C45" t="s">
         <v>2080</v>
       </c>
@@ -44409,7 +44664,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>1227</v>
       </c>
@@ -44426,7 +44681,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>663</v>
       </c>
@@ -44449,7 +44704,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>1254</v>
       </c>
@@ -44472,7 +44727,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>1286</v>
       </c>
@@ -44489,7 +44744,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>1333</v>
       </c>
@@ -44509,7 +44764,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>1360</v>
       </c>
@@ -44532,7 +44787,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>1377</v>
       </c>
@@ -44549,7 +44804,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>1480</v>
       </c>
@@ -44563,7 +44818,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>2183</v>
       </c>
@@ -44578,7 +44833,7 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>1499</v>
       </c>
@@ -44592,7 +44847,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>2034</v>
       </c>
@@ -44610,7 +44865,7 @@
       </c>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>1535</v>
       </c>
@@ -44627,7 +44882,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="C58" t="s">
         <v>2120</v>
       </c>
@@ -44636,7 +44891,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="C59" t="s">
         <v>2191</v>
       </c>
@@ -44645,7 +44900,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>1544</v>
       </c>
@@ -44662,7 +44917,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>1566</v>
       </c>
@@ -44679,7 +44934,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>1585</v>
       </c>
@@ -44696,7 +44951,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>1621</v>
       </c>
@@ -44713,7 +44968,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="C64" t="s">
         <v>2204</v>
       </c>
@@ -44722,7 +44977,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="C65" t="s">
         <v>2195</v>
       </c>
@@ -44731,7 +44986,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>1628</v>
       </c>
@@ -44750,7 +45005,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
         <v>2210</v>
@@ -44762,7 +45017,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
         <v>2212</v>
@@ -44774,7 +45029,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
         <v>2214</v>
@@ -44786,7 +45041,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>2035</v>
       </c>
@@ -44803,7 +45058,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>1671</v>
       </c>
@@ -44820,7 +45075,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="C72" t="s">
         <v>2220</v>
       </c>
@@ -44829,7 +45084,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="C73" t="s">
         <v>2115</v>
       </c>
@@ -44838,7 +45093,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>1678</v>
       </c>
@@ -44855,7 +45110,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>1709</v>
       </c>
@@ -44872,7 +45127,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>1415</v>
       </c>
@@ -44886,7 +45141,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="C77" t="s">
         <v>2230</v>
       </c>
@@ -44894,7 +45149,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>1723</v>
       </c>
@@ -44917,7 +45172,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>1729</v>
       </c>
@@ -44937,7 +45192,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>1450</v>
       </c>
@@ -44945,7 +45200,7 @@
         <v>167.68</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>1737</v>
       </c>
@@ -44959,7 +45214,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>1744</v>
       </c>
@@ -44970,7 +45225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>1748</v>
       </c>
@@ -44981,7 +45236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>1752</v>
       </c>
@@ -44995,7 +45250,7 @@
         <v>9.6075956599999994</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>1756</v>
       </c>
@@ -45009,7 +45264,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>1760</v>
       </c>
@@ -45023,7 +45278,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>1765</v>
       </c>
@@ -45034,7 +45289,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>1769</v>
       </c>
@@ -45042,7 +45297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>1773</v>
       </c>
@@ -45053,7 +45308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>1777</v>
       </c>
@@ -45067,7 +45322,7 @@
         <v>9.0640106950000003</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7">
       <c r="A94" s="3" t="s">
         <v>1671</v>
       </c>
@@ -45075,7 +45330,7 @@
         <v>2493.14</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>1784</v>
       </c>
@@ -45086,7 +45341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="A96" s="3" t="s">
         <v>510</v>
       </c>
@@ -45097,7 +45352,7 @@
         <v>7.4821358099999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>1790</v>
       </c>
@@ -45111,7 +45366,7 @@
         <v>7.1790302500000003</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>1794</v>
       </c>
@@ -45122,7 +45377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>1797</v>
       </c>
@@ -45133,7 +45388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>1801</v>
       </c>
@@ -45144,7 +45399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>1805</v>
       </c>
@@ -45155,7 +45410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>1809</v>
       </c>
@@ -45163,7 +45418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>1813</v>
       </c>
@@ -45177,7 +45432,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>1817</v>
       </c>
@@ -45185,7 +45440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>1821</v>
       </c>
@@ -45199,7 +45454,7 @@
         <v>6.1279949839999999</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>1825</v>
       </c>
@@ -45207,7 +45462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>1829</v>
       </c>
@@ -45218,7 +45473,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>1832</v>
       </c>
@@ -45232,7 +45487,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>1836</v>
       </c>
@@ -45240,7 +45495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>1840</v>
       </c>
@@ -45251,7 +45506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>1844</v>
       </c>
@@ -45265,7 +45520,7 @@
         <v>7.7593068860000001</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>1848</v>
       </c>
@@ -45276,7 +45531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" s="3" t="s">
         <v>33</v>
       </c>
@@ -45284,7 +45539,7 @@
         <v>8.4300706529999996</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>1854</v>
       </c>
@@ -45295,7 +45550,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>1857</v>
       </c>
@@ -45303,7 +45558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>1861</v>
       </c>
@@ -45317,7 +45572,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>1864</v>
       </c>
@@ -45328,7 +45583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>1867</v>
       </c>
@@ -45339,7 +45594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>1871</v>
       </c>
@@ -45353,7 +45608,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" s="3" t="s">
         <v>48</v>
       </c>
@@ -45361,7 +45616,7 @@
         <v>10.69912246</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>1877</v>
       </c>
@@ -45372,7 +45627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>1880</v>
       </c>
@@ -45386,7 +45641,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>1884</v>
       </c>
@@ -45406,7 +45661,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>1888</v>
       </c>
@@ -45417,7 +45672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>1891</v>
       </c>
@@ -45431,7 +45686,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>715</v>
       </c>
@@ -45445,7 +45700,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" s="3" t="s">
         <v>1729</v>
       </c>
@@ -45453,7 +45708,7 @@
         <v>7.638779918</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>1900</v>
       </c>
@@ -45467,7 +45722,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>1904</v>
       </c>
@@ -45481,7 +45736,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>1908</v>
       </c>
@@ -45495,7 +45750,7 @@
         <v>9.3452055919999992</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>1912</v>
       </c>
@@ -45509,7 +45764,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>1916</v>
       </c>
@@ -45520,7 +45775,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>1920</v>
       </c>
@@ -45534,7 +45789,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>1924</v>
       </c>
@@ -45545,7 +45800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>1928</v>
       </c>
@@ -45556,7 +45811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>1932</v>
       </c>
@@ -45567,7 +45822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>1936</v>
       </c>
@@ -45581,7 +45836,7 @@
         <v>7.9775022590000004</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>1939</v>
       </c>
@@ -45592,7 +45847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>1943</v>
       </c>
@@ -45606,7 +45861,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>1947</v>
       </c>
@@ -45620,7 +45875,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>1951</v>
       </c>
@@ -45628,7 +45883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>1955</v>
       </c>
@@ -45648,7 +45903,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>1959</v>
       </c>
@@ -45656,7 +45911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>1963</v>
       </c>
@@ -45667,7 +45922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>1967</v>
       </c>
@@ -45678,7 +45933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>1970</v>
       </c>
@@ -45686,7 +45941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>1973</v>
       </c>
@@ -45697,7 +45952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>1977</v>
       </c>
@@ -45711,7 +45966,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>1981</v>
       </c>
@@ -45725,7 +45980,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>1985</v>
       </c>
@@ -45739,7 +45994,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>186</v>
       </c>
@@ -45759,7 +46014,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>1992</v>
       </c>
@@ -45773,7 +46028,7 @@
         <v>9.7809819999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>1997</v>
       </c>

--- a/mutation_rate_literature_updating3.xlsx
+++ b/mutation_rate_literature_updating3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywang120\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D57E35C-8A53-4350-99AF-E5A0E5FDD9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68620EC-093B-4469-A85A-3BF7DB9672E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="6070" windowWidth="25610" windowHeight="11310" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
+    <workbookView xWindow="7210" yWindow="2680" windowWidth="28800" windowHeight="15540" xr2:uid="{09A42BD9-4349-4213-8D0A-A379C870C482}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gs_gt!$A$1:$E$129</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw!$A$1:$AC$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw!$A$1:$AC$511</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8918" uniqueCount="2326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8976" uniqueCount="2336">
   <si>
     <t>PID</t>
   </si>
@@ -7049,6 +7049,36 @@
   </si>
   <si>
     <t>4.22e-9</t>
+  </si>
+  <si>
+    <t>Prasinoderma coloniale</t>
+  </si>
+  <si>
+    <t>211..641</t>
+  </si>
+  <si>
+    <t>2025001_01</t>
+  </si>
+  <si>
+    <t>1.18e-10</t>
+  </si>
+  <si>
+    <t>2.19e-10</t>
+  </si>
+  <si>
+    <t>3.40e-11</t>
+  </si>
+  <si>
+    <t>6.45e-11</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq 4000</t>
+  </si>
+  <si>
+    <t>Mettrop, L., Lipzen, A., Vandecasteele, C., Eché, C., Labécot, A., Barry, K., ... &amp; Krasovec, M. (2025). Low Mutation Rate and Atypical Mutation Spectrum in Prasinoderma coloniale: Insights From an Early Diverging Green Lineage. Genome Biology and Evolution, 17(3), evaf026.</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/gbe/article/17/3/evaf026/8058679?login=true</t>
   </si>
 </sst>
 </file>
@@ -7455,12 +7485,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318201D5-CE15-42FE-AD6F-C948F9B6134A}">
-  <dimension ref="A1:AC510"/>
+  <dimension ref="A1:AC514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M508" sqref="M508"/>
+      <selection pane="bottomLeft" activeCell="A515" sqref="A515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -41144,8 +41174,238 @@
         <v>2322</v>
       </c>
     </row>
+    <row r="511" spans="1:29">
+      <c r="A511">
+        <v>2025001</v>
+      </c>
+      <c r="B511">
+        <v>2025</v>
+      </c>
+      <c r="C511" t="s">
+        <v>37</v>
+      </c>
+      <c r="D511" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E511" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F511" t="s">
+        <v>2326</v>
+      </c>
+      <c r="H511" t="s">
+        <v>2328</v>
+      </c>
+      <c r="I511" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J511" t="s">
+        <v>30</v>
+      </c>
+      <c r="K511" t="s">
+        <v>31</v>
+      </c>
+      <c r="L511" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="M511" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="N511" s="4" t="s">
+        <v>2330</v>
+      </c>
+      <c r="R511" s="8">
+        <v>43</v>
+      </c>
+      <c r="T511" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U511">
+        <v>25</v>
+      </c>
+      <c r="V511" t="s">
+        <v>2327</v>
+      </c>
+      <c r="W511" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AA511" t="s">
+        <v>2334</v>
+      </c>
+      <c r="AC511" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="512" spans="1:29">
+      <c r="A512">
+        <v>2025001</v>
+      </c>
+      <c r="B512">
+        <v>2025</v>
+      </c>
+      <c r="C512" t="s">
+        <v>37</v>
+      </c>
+      <c r="D512" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E512" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F512" t="s">
+        <v>2326</v>
+      </c>
+      <c r="H512" t="s">
+        <v>2328</v>
+      </c>
+      <c r="I512" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J512" t="s">
+        <v>59</v>
+      </c>
+      <c r="K512" t="s">
+        <v>31</v>
+      </c>
+      <c r="L512" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="M512" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N512" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="R512" s="8">
+        <v>9</v>
+      </c>
+      <c r="T512" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U512">
+        <v>25</v>
+      </c>
+      <c r="V512" t="s">
+        <v>2327</v>
+      </c>
+      <c r="W512" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AA512" t="s">
+        <v>2334</v>
+      </c>
+      <c r="AC512" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="513" spans="1:29">
+      <c r="A513">
+        <v>2025001</v>
+      </c>
+      <c r="B513">
+        <v>2025</v>
+      </c>
+      <c r="C513" t="s">
+        <v>37</v>
+      </c>
+      <c r="D513" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E513" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F513" t="s">
+        <v>2326</v>
+      </c>
+      <c r="H513" t="s">
+        <v>2328</v>
+      </c>
+      <c r="I513" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J513" t="s">
+        <v>61</v>
+      </c>
+      <c r="K513" t="s">
+        <v>31</v>
+      </c>
+      <c r="R513" s="8">
+        <v>2</v>
+      </c>
+      <c r="T513" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U513">
+        <v>25</v>
+      </c>
+      <c r="V513" t="s">
+        <v>2327</v>
+      </c>
+      <c r="W513" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AA513" t="s">
+        <v>2334</v>
+      </c>
+      <c r="AC513" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="514" spans="1:29">
+      <c r="A514">
+        <v>2025001</v>
+      </c>
+      <c r="B514">
+        <v>2025</v>
+      </c>
+      <c r="C514" t="s">
+        <v>37</v>
+      </c>
+      <c r="D514" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E514" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F514" t="s">
+        <v>2326</v>
+      </c>
+      <c r="H514" t="s">
+        <v>2328</v>
+      </c>
+      <c r="I514" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J514" t="s">
+        <v>60</v>
+      </c>
+      <c r="K514" t="s">
+        <v>31</v>
+      </c>
+      <c r="R514" s="8">
+        <v>7</v>
+      </c>
+      <c r="T514" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U514">
+        <v>25</v>
+      </c>
+      <c r="V514" t="s">
+        <v>2327</v>
+      </c>
+      <c r="W514" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AA514" t="s">
+        <v>2334</v>
+      </c>
+      <c r="AC514" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC500" xr:uid="{318201D5-CE15-42FE-AD6F-C948F9B6134A}"/>
+  <autoFilter ref="A1:AC511" xr:uid="{318201D5-CE15-42FE-AD6F-C948F9B6134A}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AC12" r:id="rId1" xr:uid="{45A84390-3CC1-4266-9E84-77D0AEF55CBF}"/>
@@ -41580,6 +41840,10 @@
     <hyperlink ref="AC508" r:id="rId430" xr:uid="{B342DF92-87E4-4AA1-A24D-F74CFAC50A3D}"/>
     <hyperlink ref="AC509" r:id="rId431" xr:uid="{2796B3A9-3F3F-41A9-9C15-0A5784543185}"/>
     <hyperlink ref="AC510" r:id="rId432" xr:uid="{E9854539-678D-4DFC-B47B-DD11548DDAC0}"/>
+    <hyperlink ref="AC511" r:id="rId433" xr:uid="{5BBD3740-3E30-4BFB-AB82-6FA397A3E459}"/>
+    <hyperlink ref="AC512" r:id="rId434" xr:uid="{F037E0F8-3B23-45FE-8165-8B739B62E80A}"/>
+    <hyperlink ref="AC513" r:id="rId435" xr:uid="{314D50C6-FC2D-4439-A94D-6441CC03E2A8}"/>
+    <hyperlink ref="AC514" r:id="rId436" xr:uid="{C5EDDC40-D5C8-451D-9C79-15EF548A430B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
